--- a/PythonResources/Data/Consumption/Sympheny/base_CD_coo.xlsx
+++ b/PythonResources/Data/Consumption/Sympheny/base_CD_coo.xlsx
@@ -423,7 +423,7 @@
         <v>10</v>
       </c>
       <c r="B10">
-        <v>146.0372985649484</v>
+        <v>146.0372985649483</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -455,7 +455,7 @@
         <v>14</v>
       </c>
       <c r="B14">
-        <v>252.0114930738522</v>
+        <v>252.0114930738521</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -511,7 +511,7 @@
         <v>21</v>
       </c>
       <c r="B21">
-        <v>7.987065016637644</v>
+        <v>7.987065016637643</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -711,7 +711,7 @@
         <v>46</v>
       </c>
       <c r="B46">
-        <v>3.498869625003883</v>
+        <v>3.498869625003882</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -919,7 +919,7 @@
         <v>72</v>
       </c>
       <c r="B72">
-        <v>94.77976004515639</v>
+        <v>94.77976004515638</v>
       </c>
     </row>
     <row r="73" spans="1:2">
@@ -935,7 +935,7 @@
         <v>74</v>
       </c>
       <c r="B74">
-        <v>59.79607530987867</v>
+        <v>59.79607530987866</v>
       </c>
     </row>
     <row r="75" spans="1:2">
@@ -1015,7 +1015,7 @@
         <v>84</v>
       </c>
       <c r="B84">
-        <v>218.2031111249181</v>
+        <v>218.203111124918</v>
       </c>
     </row>
     <row r="85" spans="1:2">
@@ -1079,7 +1079,7 @@
         <v>92</v>
       </c>
       <c r="B92">
-        <v>72.6875376229946</v>
+        <v>72.68753762299458</v>
       </c>
     </row>
     <row r="93" spans="1:2">
@@ -1479,7 +1479,7 @@
         <v>142</v>
       </c>
       <c r="B142">
-        <v>2.737816890387329</v>
+        <v>2.737816890387328</v>
       </c>
     </row>
     <row r="143" spans="1:2">
@@ -1575,7 +1575,7 @@
         <v>154</v>
       </c>
       <c r="B154">
-        <v>45.94292148451033</v>
+        <v>45.94292148451031</v>
       </c>
     </row>
     <row r="155" spans="1:2">
@@ -1855,7 +1855,7 @@
         <v>189</v>
       </c>
       <c r="B189">
-        <v>11.92632076859639</v>
+        <v>11.92632076859638</v>
       </c>
     </row>
     <row r="190" spans="1:2">
@@ -2407,7 +2407,7 @@
         <v>258</v>
       </c>
       <c r="B258">
-        <v>42.43211448995968</v>
+        <v>42.43211448995967</v>
       </c>
     </row>
     <row r="259" spans="1:2">
@@ -2647,7 +2647,7 @@
         <v>288</v>
       </c>
       <c r="B288">
-        <v>9.961121196011188</v>
+        <v>9.961121196011186</v>
       </c>
     </row>
     <row r="289" spans="1:2">
@@ -2703,7 +2703,7 @@
         <v>295</v>
       </c>
       <c r="B295">
-        <v>7.043792433023011</v>
+        <v>7.04379243302301</v>
       </c>
     </row>
     <row r="296" spans="1:2">
@@ -2719,7 +2719,7 @@
         <v>297</v>
       </c>
       <c r="B297">
-        <v>113.5705079096943</v>
+        <v>113.5705079096942</v>
       </c>
     </row>
     <row r="298" spans="1:2">
@@ -2879,7 +2879,7 @@
         <v>317</v>
       </c>
       <c r="B317">
-        <v>36.5515561779082</v>
+        <v>36.55155617790819</v>
       </c>
     </row>
     <row r="318" spans="1:2">
@@ -3103,7 +3103,7 @@
         <v>345</v>
       </c>
       <c r="B345">
-        <v>21.60088882584606</v>
+        <v>21.60088882584605</v>
       </c>
     </row>
     <row r="346" spans="1:2">
@@ -3111,7 +3111,7 @@
         <v>346</v>
       </c>
       <c r="B346">
-        <v>68.83740477389277</v>
+        <v>68.83740477389276</v>
       </c>
     </row>
     <row r="347" spans="1:2">
@@ -3175,7 +3175,7 @@
         <v>354</v>
       </c>
       <c r="B354">
-        <v>0.873002940674802</v>
+        <v>0.8730029406748019</v>
       </c>
     </row>
     <row r="355" spans="1:2">
@@ -3231,7 +3231,7 @@
         <v>361</v>
       </c>
       <c r="B361">
-        <v>4.231125199361575</v>
+        <v>4.231125199361574</v>
       </c>
     </row>
     <row r="362" spans="1:2">
@@ -3335,7 +3335,7 @@
         <v>374</v>
       </c>
       <c r="B374">
-        <v>120.5944242648753</v>
+        <v>120.5944242648752</v>
       </c>
     </row>
     <row r="375" spans="1:2">
@@ -3479,7 +3479,7 @@
         <v>392</v>
       </c>
       <c r="B392">
-        <v>8.395635351635425</v>
+        <v>8.395635351635423</v>
       </c>
     </row>
     <row r="393" spans="1:2">
@@ -3695,7 +3695,7 @@
         <v>419</v>
       </c>
       <c r="B419">
-        <v>41.49006694328666</v>
+        <v>41.49006694328665</v>
       </c>
     </row>
     <row r="420" spans="1:2">
@@ -3727,7 +3727,7 @@
         <v>423</v>
       </c>
       <c r="B423">
-        <v>58.55483153983627</v>
+        <v>58.55483153983626</v>
       </c>
     </row>
     <row r="424" spans="1:2">
@@ -3863,7 +3863,7 @@
         <v>440</v>
       </c>
       <c r="B440">
-        <v>5.714328418922777</v>
+        <v>5.714328418922776</v>
       </c>
     </row>
     <row r="441" spans="1:2">
@@ -3927,7 +3927,7 @@
         <v>448</v>
       </c>
       <c r="B448">
-        <v>1.575025306684189</v>
+        <v>1.575025306684188</v>
       </c>
     </row>
     <row r="449" spans="1:2">
@@ -4087,7 +4087,7 @@
         <v>468</v>
       </c>
       <c r="B468">
-        <v>55.3249161377223</v>
+        <v>55.32491613772228</v>
       </c>
     </row>
     <row r="469" spans="1:2">
@@ -4127,7 +4127,7 @@
         <v>473</v>
       </c>
       <c r="B473">
-        <v>12.22457916464204</v>
+        <v>12.22457916464203</v>
       </c>
     </row>
     <row r="474" spans="1:2">
@@ -4303,7 +4303,7 @@
         <v>495</v>
       </c>
       <c r="B495">
-        <v>62.15655737656874</v>
+        <v>62.15655737656873</v>
       </c>
     </row>
     <row r="496" spans="1:2">
@@ -4455,7 +4455,7 @@
         <v>514</v>
       </c>
       <c r="B514">
-        <v>9.350783173736616</v>
+        <v>9.350783173736614</v>
       </c>
     </row>
     <row r="515" spans="1:2">
@@ -4823,7 +4823,7 @@
         <v>560</v>
       </c>
       <c r="B560">
-        <v>4.880218935788722</v>
+        <v>4.880218935788721</v>
       </c>
     </row>
     <row r="561" spans="1:2">
@@ -4831,7 +4831,7 @@
         <v>561</v>
       </c>
       <c r="B561">
-        <v>6.075069560411027</v>
+        <v>6.075069560411026</v>
       </c>
     </row>
     <row r="562" spans="1:2">
@@ -4887,7 +4887,7 @@
         <v>568</v>
       </c>
       <c r="B568">
-        <v>4.528269925460313</v>
+        <v>4.528269925460312</v>
       </c>
     </row>
     <row r="569" spans="1:2">
@@ -5055,7 +5055,7 @@
         <v>589</v>
       </c>
       <c r="B589">
-        <v>11.43542589962552</v>
+        <v>11.43542589962551</v>
       </c>
     </row>
     <row r="590" spans="1:2">
@@ -5215,7 +5215,7 @@
         <v>609</v>
       </c>
       <c r="B609">
-        <v>9.755309128400871</v>
+        <v>9.755309128400867</v>
       </c>
     </row>
     <row r="610" spans="1:2">
@@ -5271,7 +5271,7 @@
         <v>616</v>
       </c>
       <c r="B616">
-        <v>39.36861361572878</v>
+        <v>39.36861361572876</v>
       </c>
     </row>
     <row r="617" spans="1:2">
@@ -5311,7 +5311,7 @@
         <v>621</v>
       </c>
       <c r="B621">
-        <v>5.617820125891596</v>
+        <v>5.617820125891595</v>
       </c>
     </row>
     <row r="622" spans="1:2">
@@ -5407,7 +5407,7 @@
         <v>633</v>
       </c>
       <c r="B633">
-        <v>5.454608864461093</v>
+        <v>5.454608864461092</v>
       </c>
     </row>
     <row r="634" spans="1:2">
@@ -5439,7 +5439,7 @@
         <v>637</v>
       </c>
       <c r="B637">
-        <v>70.86809400077723</v>
+        <v>70.86809400077722</v>
       </c>
     </row>
     <row r="638" spans="1:2">
@@ -5631,7 +5631,7 @@
         <v>661</v>
       </c>
       <c r="B661">
-        <v>83.43322171234375</v>
+        <v>83.43322171234374</v>
       </c>
     </row>
     <row r="662" spans="1:2">
@@ -5799,7 +5799,7 @@
         <v>682</v>
       </c>
       <c r="B682">
-        <v>52.92637293524127</v>
+        <v>52.92637293524126</v>
       </c>
     </row>
     <row r="683" spans="1:2">
@@ -5863,7 +5863,7 @@
         <v>690</v>
       </c>
       <c r="B690">
-        <v>9.791649937194878</v>
+        <v>9.791649937194876</v>
       </c>
     </row>
     <row r="691" spans="1:2">
@@ -5975,7 +5975,7 @@
         <v>704</v>
       </c>
       <c r="B704">
-        <v>16.36438342835674</v>
+        <v>16.36438342835673</v>
       </c>
     </row>
     <row r="705" spans="1:2">
@@ -6023,7 +6023,7 @@
         <v>710</v>
       </c>
       <c r="B710">
-        <v>8.508878000974169</v>
+        <v>8.508878000974168</v>
       </c>
     </row>
     <row r="711" spans="1:2">
@@ -6031,7 +6031,7 @@
         <v>711</v>
       </c>
       <c r="B711">
-        <v>36.21150585174944</v>
+        <v>36.21150585174943</v>
       </c>
     </row>
     <row r="712" spans="1:2">
@@ -6175,7 +6175,7 @@
         <v>729</v>
       </c>
       <c r="B729">
-        <v>6.96568313979899</v>
+        <v>6.965683139798989</v>
       </c>
     </row>
     <row r="730" spans="1:2">
@@ -6367,7 +6367,7 @@
         <v>753</v>
       </c>
       <c r="B753">
-        <v>4.063693714974348</v>
+        <v>4.063693714974347</v>
       </c>
     </row>
     <row r="754" spans="1:2">
@@ -6407,7 +6407,7 @@
         <v>758</v>
       </c>
       <c r="B758">
-        <v>70.02917815260913</v>
+        <v>70.02917815260912</v>
       </c>
     </row>
     <row r="759" spans="1:2">
@@ -6415,7 +6415,7 @@
         <v>759</v>
       </c>
       <c r="B759">
-        <v>86.95634589650724</v>
+        <v>86.95634589650723</v>
       </c>
     </row>
     <row r="760" spans="1:2">
@@ -6439,7 +6439,7 @@
         <v>762</v>
       </c>
       <c r="B762">
-        <v>7.620403840168435</v>
+        <v>7.620403840168434</v>
       </c>
     </row>
     <row r="763" spans="1:2">
@@ -6591,7 +6591,7 @@
         <v>781</v>
       </c>
       <c r="B781">
-        <v>9.01715110332454</v>
+        <v>9.017151103324538</v>
       </c>
     </row>
     <row r="782" spans="1:2">
@@ -6615,7 +6615,7 @@
         <v>784</v>
       </c>
       <c r="B784">
-        <v>8.003770065841341</v>
+        <v>8.003770065841339</v>
       </c>
     </row>
     <row r="785" spans="1:2">
@@ -6639,7 +6639,7 @@
         <v>787</v>
       </c>
       <c r="B787">
-        <v>0.4361160819215613</v>
+        <v>0.4361160819215612</v>
       </c>
     </row>
     <row r="788" spans="1:2">
@@ -6983,7 +6983,7 @@
         <v>830</v>
       </c>
       <c r="B830">
-        <v>49.45368627683139</v>
+        <v>49.45368627683138</v>
       </c>
     </row>
     <row r="831" spans="1:2">
@@ -7007,7 +7007,7 @@
         <v>833</v>
       </c>
       <c r="B833">
-        <v>0.4038020691987614</v>
+        <v>0.4038020691987613</v>
       </c>
     </row>
     <row r="834" spans="1:2">
@@ -7135,7 +7135,7 @@
         <v>849</v>
       </c>
       <c r="B849">
-        <v>5.218422914403915</v>
+        <v>5.218422914403914</v>
       </c>
     </row>
     <row r="850" spans="1:2">
@@ -7207,7 +7207,7 @@
         <v>858</v>
       </c>
       <c r="B858">
-        <v>0.5752427653948752</v>
+        <v>0.5752427653948751</v>
       </c>
     </row>
     <row r="859" spans="1:2">
@@ -7311,7 +7311,7 @@
         <v>871</v>
       </c>
       <c r="B871">
-        <v>8.622325800039976</v>
+        <v>8.622325800039974</v>
       </c>
     </row>
     <row r="872" spans="1:2">
@@ -7367,7 +7367,7 @@
         <v>878</v>
       </c>
       <c r="B878">
-        <v>85.34817718606085</v>
+        <v>85.34817718606084</v>
       </c>
     </row>
     <row r="879" spans="1:2">
@@ -7383,7 +7383,7 @@
         <v>880</v>
       </c>
       <c r="B880">
-        <v>87.5445101639967</v>
+        <v>87.54451016399669</v>
       </c>
     </row>
     <row r="881" spans="1:2">
@@ -7567,7 +7567,7 @@
         <v>903</v>
       </c>
       <c r="B903">
-        <v>16.40380148305669</v>
+        <v>16.40380148305668</v>
       </c>
     </row>
     <row r="904" spans="1:2">
@@ -7591,7 +7591,7 @@
         <v>906</v>
       </c>
       <c r="B906">
-        <v>14.15368996952648</v>
+        <v>14.15368996952647</v>
       </c>
     </row>
     <row r="907" spans="1:2">
@@ -7615,7 +7615,7 @@
         <v>909</v>
       </c>
       <c r="B909">
-        <v>4.529940430380682</v>
+        <v>4.529940430380681</v>
       </c>
     </row>
     <row r="910" spans="1:2">
@@ -7783,7 +7783,7 @@
         <v>930</v>
       </c>
       <c r="B930">
-        <v>17.96291010163118</v>
+        <v>17.96291010163117</v>
       </c>
     </row>
     <row r="931" spans="1:2">
@@ -7831,7 +7831,7 @@
         <v>936</v>
       </c>
       <c r="B936">
-        <v>1.974097209318956</v>
+        <v>1.974097209318955</v>
       </c>
     </row>
     <row r="937" spans="1:2">
@@ -8007,7 +8007,7 @@
         <v>958</v>
       </c>
       <c r="B958">
-        <v>9.283341666319867</v>
+        <v>9.283341666319865</v>
       </c>
     </row>
     <row r="959" spans="1:2">
@@ -8303,7 +8303,7 @@
         <v>995</v>
       </c>
       <c r="B995">
-        <v>77.55676639483352</v>
+        <v>77.5567663948335</v>
       </c>
     </row>
     <row r="996" spans="1:2">
@@ -8343,7 +8343,7 @@
         <v>1000</v>
       </c>
       <c r="B1000">
-        <v>126.5109130862667</v>
+        <v>126.5109130862666</v>
       </c>
     </row>
     <row r="1001" spans="1:2">
@@ -8479,7 +8479,7 @@
         <v>1017</v>
       </c>
       <c r="B1017">
-        <v>8.989719654105839</v>
+        <v>8.989719654105837</v>
       </c>
     </row>
     <row r="1018" spans="1:2">
@@ -8543,7 +8543,7 @@
         <v>1025</v>
       </c>
       <c r="B1025">
-        <v>10.93931612459271</v>
+        <v>10.9393161245927</v>
       </c>
     </row>
     <row r="1026" spans="1:2">
@@ -8727,7 +8727,7 @@
         <v>1048</v>
       </c>
       <c r="B1048">
-        <v>95.29219475625575</v>
+        <v>95.29219475625574</v>
       </c>
     </row>
     <row r="1049" spans="1:2">
@@ -8871,7 +8871,7 @@
         <v>1066</v>
       </c>
       <c r="B1066">
-        <v>88.92408346428726</v>
+        <v>88.92408346428724</v>
       </c>
     </row>
     <row r="1067" spans="1:2">
@@ -8887,7 +8887,7 @@
         <v>1068</v>
       </c>
       <c r="B1068">
-        <v>142.494890306441</v>
+        <v>142.4948903064409</v>
       </c>
     </row>
     <row r="1069" spans="1:2">
@@ -8927,7 +8927,7 @@
         <v>1073</v>
       </c>
       <c r="B1073">
-        <v>31.9746364600301</v>
+        <v>31.97463646003009</v>
       </c>
     </row>
     <row r="1074" spans="1:2">
@@ -8975,7 +8975,7 @@
         <v>1079</v>
       </c>
       <c r="B1079">
-        <v>0.5046741899956099</v>
+        <v>0.5046741899956098</v>
       </c>
     </row>
     <row r="1080" spans="1:2">
@@ -9079,7 +9079,7 @@
         <v>1092</v>
       </c>
       <c r="B1092">
-        <v>15.88450890965265</v>
+        <v>15.88450890965264</v>
       </c>
     </row>
     <row r="1093" spans="1:2">
@@ -9263,7 +9263,7 @@
         <v>1115</v>
       </c>
       <c r="B1115">
-        <v>8.738792230803995</v>
+        <v>8.738792230803993</v>
       </c>
     </row>
     <row r="1116" spans="1:2">
@@ -9319,7 +9319,7 @@
         <v>1122</v>
       </c>
       <c r="B1122">
-        <v>6.022639151594512</v>
+        <v>6.022639151594511</v>
       </c>
     </row>
     <row r="1123" spans="1:2">
@@ -9471,7 +9471,7 @@
         <v>1141</v>
       </c>
       <c r="B1141">
-        <v>0.2468052033004488</v>
+        <v>0.2468052033004487</v>
       </c>
     </row>
     <row r="1142" spans="1:2">
@@ -9631,7 +9631,7 @@
         <v>1161</v>
       </c>
       <c r="B1161">
-        <v>3.405954382906691</v>
+        <v>3.40595438290669</v>
       </c>
     </row>
     <row r="1162" spans="1:2">
@@ -9887,7 +9887,7 @@
         <v>1193</v>
       </c>
       <c r="B1193">
-        <v>3.41884950860779</v>
+        <v>3.418849508607789</v>
       </c>
     </row>
     <row r="1194" spans="1:2">
@@ -10119,7 +10119,7 @@
         <v>1222</v>
       </c>
       <c r="B1222">
-        <v>70.95241053860011</v>
+        <v>70.95241053860009</v>
       </c>
     </row>
     <row r="1223" spans="1:2">
@@ -10327,7 +10327,7 @@
         <v>1248</v>
       </c>
       <c r="B1248">
-        <v>28.06287077149779</v>
+        <v>28.06287077149778</v>
       </c>
     </row>
     <row r="1249" spans="1:2">
@@ -10439,7 +10439,7 @@
         <v>1262</v>
       </c>
       <c r="B1262">
-        <v>41.46489214106565</v>
+        <v>41.46489214106564</v>
       </c>
     </row>
     <row r="1263" spans="1:2">
@@ -10447,7 +10447,7 @@
         <v>1263</v>
       </c>
       <c r="B1263">
-        <v>43.18082307242782</v>
+        <v>43.18082307242781</v>
       </c>
     </row>
     <row r="1264" spans="1:2">
@@ -10559,7 +10559,7 @@
         <v>1277</v>
       </c>
       <c r="B1277">
-        <v>7.794634572652605</v>
+        <v>7.794634572652604</v>
       </c>
     </row>
     <row r="1278" spans="1:2">
@@ -10703,7 +10703,7 @@
         <v>1295</v>
       </c>
       <c r="B1295">
-        <v>44.95601296780733</v>
+        <v>44.95601296780732</v>
       </c>
     </row>
     <row r="1296" spans="1:2">
@@ -10743,7 +10743,7 @@
         <v>1300</v>
       </c>
       <c r="B1300">
-        <v>9.955936769337267</v>
+        <v>9.955936769337264</v>
       </c>
     </row>
     <row r="1301" spans="1:2">
@@ -10887,7 +10887,7 @@
         <v>1318</v>
       </c>
       <c r="B1318">
-        <v>63.78910959743177</v>
+        <v>63.78910959743176</v>
       </c>
     </row>
     <row r="1319" spans="1:2">
@@ -11079,7 +11079,7 @@
         <v>1342</v>
       </c>
       <c r="B1342">
-        <v>140.7462526471642</v>
+        <v>140.7462526471641</v>
       </c>
     </row>
     <row r="1343" spans="1:2">
@@ -11223,7 +11223,7 @@
         <v>1360</v>
       </c>
       <c r="B1360">
-        <v>47.385982177764</v>
+        <v>47.38598217776399</v>
       </c>
     </row>
     <row r="1361" spans="1:2">
@@ -11287,7 +11287,7 @@
         <v>1368</v>
       </c>
       <c r="B1368">
-        <v>13.81759610238965</v>
+        <v>13.81759610238964</v>
       </c>
     </row>
     <row r="1369" spans="1:2">
@@ -11551,7 +11551,7 @@
         <v>1401</v>
       </c>
       <c r="B1401">
-        <v>96.57013102033856</v>
+        <v>96.57013102033855</v>
       </c>
     </row>
     <row r="1402" spans="1:2">
@@ -11815,7 +11815,7 @@
         <v>1434</v>
       </c>
       <c r="B1434">
-        <v>14.25057925490792</v>
+        <v>14.25057925490791</v>
       </c>
     </row>
     <row r="1435" spans="1:2">
@@ -11831,7 +11831,7 @@
         <v>1436</v>
       </c>
       <c r="B1436">
-        <v>7.050761662322378</v>
+        <v>7.050761662322377</v>
       </c>
     </row>
     <row r="1437" spans="1:2">
@@ -11935,7 +11935,7 @@
         <v>1449</v>
       </c>
       <c r="B1449">
-        <v>32.72821002174002</v>
+        <v>32.72821002174001</v>
       </c>
     </row>
     <row r="1450" spans="1:2">
@@ -12167,7 +12167,7 @@
         <v>1478</v>
       </c>
       <c r="B1478">
-        <v>70.73440847420771</v>
+        <v>70.7344084742077</v>
       </c>
     </row>
     <row r="1479" spans="1:2">
@@ -12183,7 +12183,7 @@
         <v>1480</v>
       </c>
       <c r="B1480">
-        <v>89.71789567960538</v>
+        <v>89.71789567960536</v>
       </c>
     </row>
     <row r="1481" spans="1:2">
@@ -12199,7 +12199,7 @@
         <v>1482</v>
       </c>
       <c r="B1482">
-        <v>25.32828352395651</v>
+        <v>25.3282835239565</v>
       </c>
     </row>
     <row r="1483" spans="1:2">
@@ -12359,7 +12359,7 @@
         <v>1502</v>
       </c>
       <c r="B1502">
-        <v>104.9637210291952</v>
+        <v>104.9637210291951</v>
       </c>
     </row>
     <row r="1503" spans="1:2">
@@ -12399,7 +12399,7 @@
         <v>1507</v>
       </c>
       <c r="B1507">
-        <v>10.59730222247492</v>
+        <v>10.59730222247491</v>
       </c>
     </row>
     <row r="1508" spans="1:2">
@@ -12551,7 +12551,7 @@
         <v>1526</v>
       </c>
       <c r="B1526">
-        <v>75.30603943212212</v>
+        <v>75.30603943212211</v>
       </c>
     </row>
     <row r="1527" spans="1:2">
@@ -12831,7 +12831,7 @@
         <v>1561</v>
       </c>
       <c r="B1561">
-        <v>4.526687341851542</v>
+        <v>4.526687341851541</v>
       </c>
     </row>
     <row r="1562" spans="1:2">
@@ -12839,7 +12839,7 @@
         <v>1562</v>
       </c>
       <c r="B1562">
-        <v>2.567363843591504</v>
+        <v>2.567363843591503</v>
       </c>
     </row>
     <row r="1563" spans="1:2">
@@ -12927,7 +12927,7 @@
         <v>1573</v>
       </c>
       <c r="B1573">
-        <v>260.8563770206516</v>
+        <v>260.8563770206515</v>
       </c>
     </row>
     <row r="1574" spans="1:2">
@@ -13111,7 +13111,7 @@
         <v>1596</v>
       </c>
       <c r="B1596">
-        <v>7.14202398376152</v>
+        <v>7.142023983761519</v>
       </c>
     </row>
     <row r="1597" spans="1:2">
@@ -13135,7 +13135,7 @@
         <v>1599</v>
       </c>
       <c r="B1599">
-        <v>9.33422466005225</v>
+        <v>9.334224660052248</v>
       </c>
     </row>
     <row r="1600" spans="1:2">
@@ -13175,7 +13175,7 @@
         <v>1604</v>
       </c>
       <c r="B1604">
-        <v>0.5734579627694276</v>
+        <v>0.5734579627694275</v>
       </c>
     </row>
     <row r="1605" spans="1:2">
@@ -13271,7 +13271,7 @@
         <v>1616</v>
       </c>
       <c r="B1616">
-        <v>6.62827953819038</v>
+        <v>6.628279538190379</v>
       </c>
     </row>
     <row r="1617" spans="1:2">
@@ -13519,7 +13519,7 @@
         <v>1647</v>
       </c>
       <c r="B1647">
-        <v>102.9395552705603</v>
+        <v>102.9395552705602</v>
       </c>
     </row>
     <row r="1648" spans="1:2">
@@ -13839,7 +13839,7 @@
         <v>1687</v>
       </c>
       <c r="B1687">
-        <v>16.43800287326847</v>
+        <v>16.43800287326846</v>
       </c>
     </row>
     <row r="1688" spans="1:2">
@@ -13959,7 +13959,7 @@
         <v>1702</v>
       </c>
       <c r="B1702">
-        <v>6.641866018471682</v>
+        <v>6.641866018471681</v>
       </c>
     </row>
     <row r="1703" spans="1:2">
@@ -14063,7 +14063,7 @@
         <v>1715</v>
       </c>
       <c r="B1715">
-        <v>22.09263272161593</v>
+        <v>22.09263272161592</v>
       </c>
     </row>
     <row r="1716" spans="1:2">
@@ -14239,7 +14239,7 @@
         <v>1737</v>
       </c>
       <c r="B1737">
-        <v>80.6640813893443</v>
+        <v>80.66408138934429</v>
       </c>
     </row>
     <row r="1738" spans="1:2">
@@ -14639,7 +14639,7 @@
         <v>1787</v>
       </c>
       <c r="B1787">
-        <v>97.3222099197513</v>
+        <v>97.32220991975129</v>
       </c>
     </row>
     <row r="1788" spans="1:2">
@@ -14663,7 +14663,7 @@
         <v>1790</v>
       </c>
       <c r="B1790">
-        <v>74.73176673186521</v>
+        <v>74.73176673186519</v>
       </c>
     </row>
     <row r="1791" spans="1:2">
@@ -15215,7 +15215,7 @@
         <v>1859</v>
       </c>
       <c r="B1859">
-        <v>164.3255761337014</v>
+        <v>164.3255761337013</v>
       </c>
     </row>
     <row r="1860" spans="1:2">
@@ -15295,7 +15295,7 @@
         <v>1869</v>
       </c>
       <c r="B1869">
-        <v>85.1027008840781</v>
+        <v>85.10270088407809</v>
       </c>
     </row>
     <row r="1870" spans="1:2">
@@ -15439,7 +15439,7 @@
         <v>1887</v>
       </c>
       <c r="B1887">
-        <v>34.73820843329499</v>
+        <v>34.73820843329498</v>
       </c>
     </row>
     <row r="1888" spans="1:2">
@@ -15487,7 +15487,7 @@
         <v>1893</v>
       </c>
       <c r="B1893">
-        <v>20.57282492932593</v>
+        <v>20.57282492932592</v>
       </c>
     </row>
     <row r="1894" spans="1:2">
@@ -15527,7 +15527,7 @@
         <v>1898</v>
       </c>
       <c r="B1898">
-        <v>1.589544045939472</v>
+        <v>1.589544045939471</v>
       </c>
     </row>
     <row r="1899" spans="1:2">
@@ -15535,7 +15535,7 @@
         <v>1899</v>
       </c>
       <c r="B1899">
-        <v>0.5463987137698256</v>
+        <v>0.5463987137698255</v>
       </c>
     </row>
     <row r="1900" spans="1:2">
@@ -15671,7 +15671,7 @@
         <v>1916</v>
       </c>
       <c r="B1916">
-        <v>42.20712385357937</v>
+        <v>42.20712385357936</v>
       </c>
     </row>
     <row r="1917" spans="1:2">
@@ -15759,7 +15759,7 @@
         <v>1927</v>
       </c>
       <c r="B1927">
-        <v>9.816971274935218</v>
+        <v>9.816971274935216</v>
       </c>
     </row>
     <row r="1928" spans="1:2">
@@ -15847,7 +15847,7 @@
         <v>1938</v>
       </c>
       <c r="B1938">
-        <v>211.7702018263015</v>
+        <v>211.7702018263014</v>
       </c>
     </row>
     <row r="1939" spans="1:2">
@@ -15879,7 +15879,7 @@
         <v>1942</v>
       </c>
       <c r="B1942">
-        <v>38.59965382448914</v>
+        <v>38.59965382448913</v>
       </c>
     </row>
     <row r="1943" spans="1:2">
@@ -15959,7 +15959,7 @@
         <v>1952</v>
       </c>
       <c r="B1952">
-        <v>17.0954198271936</v>
+        <v>17.09541982719359</v>
       </c>
     </row>
     <row r="1953" spans="1:2">
@@ -16079,7 +16079,7 @@
         <v>1967</v>
       </c>
       <c r="B1967">
-        <v>1.63298010457947</v>
+        <v>1.632980104579469</v>
       </c>
     </row>
     <row r="1968" spans="1:2">
@@ -16191,7 +16191,7 @@
         <v>1981</v>
       </c>
       <c r="B1981">
-        <v>24.41833018672729</v>
+        <v>24.41833018672728</v>
       </c>
     </row>
     <row r="1982" spans="1:2">
@@ -16623,7 +16623,7 @@
         <v>2035</v>
       </c>
       <c r="B2035">
-        <v>21.09548781967457</v>
+        <v>21.09548781967456</v>
       </c>
     </row>
     <row r="2036" spans="1:2">
@@ -16711,7 +16711,7 @@
         <v>2046</v>
       </c>
       <c r="B2046">
-        <v>17.55009023657281</v>
+        <v>17.5500902365728</v>
       </c>
     </row>
     <row r="2047" spans="1:2">
@@ -17047,7 +17047,7 @@
         <v>2088</v>
       </c>
       <c r="B2088">
-        <v>7.088157526855565</v>
+        <v>7.088157526855564</v>
       </c>
     </row>
     <row r="2089" spans="1:2">
@@ -17087,7 +17087,7 @@
         <v>2093</v>
       </c>
       <c r="B2093">
-        <v>4.528035468629383</v>
+        <v>4.528035468629382</v>
       </c>
     </row>
     <row r="2094" spans="1:2">
@@ -17167,7 +17167,7 @@
         <v>2103</v>
       </c>
       <c r="B2103">
-        <v>79.3750670400001</v>
+        <v>79.37506704000009</v>
       </c>
     </row>
     <row r="2104" spans="1:2">
@@ -17215,7 +17215,7 @@
         <v>2109</v>
       </c>
       <c r="B2109">
-        <v>97.89783074678606</v>
+        <v>97.89783074678604</v>
       </c>
     </row>
     <row r="2110" spans="1:2">
@@ -17407,7 +17407,7 @@
         <v>2133</v>
       </c>
       <c r="B2133">
-        <v>100.2686582211409</v>
+        <v>100.2686582211408</v>
       </c>
     </row>
     <row r="2134" spans="1:2">
@@ -17431,7 +17431,7 @@
         <v>2136</v>
       </c>
       <c r="B2136">
-        <v>12.44687354746667</v>
+        <v>12.44687354746666</v>
       </c>
     </row>
     <row r="2137" spans="1:2">
@@ -17519,7 +17519,7 @@
         <v>2147</v>
       </c>
       <c r="B2147">
-        <v>5.865383093669608</v>
+        <v>5.865383093669607</v>
       </c>
     </row>
     <row r="2148" spans="1:2">
@@ -17567,7 +17567,7 @@
         <v>2153</v>
       </c>
       <c r="B2153">
-        <v>8.229455280583283</v>
+        <v>8.229455280583281</v>
       </c>
     </row>
     <row r="2154" spans="1:2">
@@ -17775,7 +17775,7 @@
         <v>2179</v>
       </c>
       <c r="B2179">
-        <v>98.9024196531094</v>
+        <v>98.90241965310939</v>
       </c>
     </row>
     <row r="2180" spans="1:2">
@@ -17919,7 +17919,7 @@
         <v>2197</v>
       </c>
       <c r="B2197">
-        <v>221.4444768125125</v>
+        <v>221.4444768125124</v>
       </c>
     </row>
     <row r="2198" spans="1:2">
@@ -17927,7 +17927,7 @@
         <v>2198</v>
       </c>
       <c r="B2198">
-        <v>257.9019278799066</v>
+        <v>257.9019278799065</v>
       </c>
     </row>
     <row r="2199" spans="1:2">
@@ -18143,7 +18143,7 @@
         <v>2225</v>
       </c>
       <c r="B2225">
-        <v>319.453000490601</v>
+        <v>319.4530004906009</v>
       </c>
     </row>
     <row r="2226" spans="1:2">
@@ -18159,7 +18159,7 @@
         <v>2227</v>
       </c>
       <c r="B2227">
-        <v>226.6655373662644</v>
+        <v>226.6655373662643</v>
       </c>
     </row>
     <row r="2228" spans="1:2">
@@ -18263,7 +18263,7 @@
         <v>2240</v>
       </c>
       <c r="B2240">
-        <v>153.8268337015283</v>
+        <v>153.8268337015282</v>
       </c>
     </row>
     <row r="2241" spans="1:2">
@@ -18303,7 +18303,7 @@
         <v>2245</v>
       </c>
       <c r="B2245">
-        <v>336.7925484929995</v>
+        <v>336.7925484929994</v>
       </c>
     </row>
     <row r="2246" spans="1:2">
@@ -18335,7 +18335,7 @@
         <v>2249</v>
       </c>
       <c r="B2249">
-        <v>425.0933870864695</v>
+        <v>425.0933870864694</v>
       </c>
     </row>
     <row r="2250" spans="1:2">
@@ -18415,7 +18415,7 @@
         <v>2259</v>
       </c>
       <c r="B2259">
-        <v>25.87676597281122</v>
+        <v>25.87676597281121</v>
       </c>
     </row>
     <row r="2260" spans="1:2">
@@ -18679,7 +18679,7 @@
         <v>2292</v>
       </c>
       <c r="B2292">
-        <v>203.6269299460574</v>
+        <v>203.6269299460573</v>
       </c>
     </row>
     <row r="2293" spans="1:2">
@@ -18823,7 +18823,7 @@
         <v>2310</v>
       </c>
       <c r="B2310">
-        <v>74.93386852012608</v>
+        <v>74.93386852012607</v>
       </c>
     </row>
     <row r="2311" spans="1:2">
@@ -19111,7 +19111,7 @@
         <v>2346</v>
       </c>
       <c r="B2346">
-        <v>236.9884664823446</v>
+        <v>236.9884664823445</v>
       </c>
     </row>
     <row r="2347" spans="1:2">
@@ -19159,7 +19159,7 @@
         <v>2352</v>
       </c>
       <c r="B2352">
-        <v>7.96466266644237</v>
+        <v>7.964662666442369</v>
       </c>
     </row>
     <row r="2353" spans="1:2">
@@ -19247,7 +19247,7 @@
         <v>2363</v>
       </c>
       <c r="B2363">
-        <v>61.76548338257904</v>
+        <v>61.76548338257903</v>
       </c>
     </row>
     <row r="2364" spans="1:2">
@@ -19303,7 +19303,7 @@
         <v>2370</v>
       </c>
       <c r="B2370">
-        <v>63.62079889992855</v>
+        <v>63.62079889992854</v>
       </c>
     </row>
     <row r="2371" spans="1:2">
@@ -19455,7 +19455,7 @@
         <v>2389</v>
       </c>
       <c r="B2389">
-        <v>93.94673492486538</v>
+        <v>93.94673492486537</v>
       </c>
     </row>
     <row r="2390" spans="1:2">
@@ -19463,7 +19463,7 @@
         <v>2390</v>
       </c>
       <c r="B2390">
-        <v>127.0496948837417</v>
+        <v>127.0496948837416</v>
       </c>
     </row>
     <row r="2391" spans="1:2">
@@ -19535,7 +19535,7 @@
         <v>2399</v>
       </c>
       <c r="B2399">
-        <v>0.4847394979458651</v>
+        <v>0.484739497945865</v>
       </c>
     </row>
     <row r="2400" spans="1:2">
@@ -19639,7 +19639,7 @@
         <v>2412</v>
       </c>
       <c r="B2412">
-        <v>84.50041059252517</v>
+        <v>84.50041059252516</v>
       </c>
     </row>
     <row r="2413" spans="1:2">
@@ -19671,7 +19671,7 @@
         <v>2416</v>
       </c>
       <c r="B2416">
-        <v>261.5705911418693</v>
+        <v>261.5705911418692</v>
       </c>
     </row>
     <row r="2417" spans="1:2">
@@ -19975,7 +19975,7 @@
         <v>2454</v>
       </c>
       <c r="B2454">
-        <v>69.05925955015941</v>
+        <v>69.0592595501594</v>
       </c>
     </row>
     <row r="2455" spans="1:2">
@@ -20423,7 +20423,7 @@
         <v>2510</v>
       </c>
       <c r="B2510">
-        <v>209.5139358209594</v>
+        <v>209.5139358209593</v>
       </c>
     </row>
     <row r="2511" spans="1:2">
@@ -20479,7 +20479,7 @@
         <v>2517</v>
       </c>
       <c r="B2517">
-        <v>35.1544572295057</v>
+        <v>35.15445722950569</v>
       </c>
     </row>
     <row r="2518" spans="1:2">
@@ -20495,7 +20495,7 @@
         <v>2519</v>
       </c>
       <c r="B2519">
-        <v>2.59494768975031</v>
+        <v>2.594947689750309</v>
       </c>
     </row>
     <row r="2520" spans="1:2">
@@ -20559,7 +20559,7 @@
         <v>2527</v>
       </c>
       <c r="B2527">
-        <v>19.51770178380619</v>
+        <v>19.51770178380618</v>
       </c>
     </row>
     <row r="2528" spans="1:2">
@@ -20815,7 +20815,7 @@
         <v>2559</v>
       </c>
       <c r="B2559">
-        <v>23.98920971049857</v>
+        <v>23.98920971049856</v>
       </c>
     </row>
     <row r="2560" spans="1:2">
@@ -20887,7 +20887,7 @@
         <v>2568</v>
       </c>
       <c r="B2568">
-        <v>2.322587981391162</v>
+        <v>2.322587981391161</v>
       </c>
     </row>
     <row r="2569" spans="1:2">
@@ -20895,7 +20895,7 @@
         <v>2569</v>
       </c>
       <c r="B2569">
-        <v>0.7991842074567823</v>
+        <v>0.7991842074567822</v>
       </c>
     </row>
     <row r="2570" spans="1:2">
@@ -20983,7 +20983,7 @@
         <v>2580</v>
       </c>
       <c r="B2580">
-        <v>54.61660153651285</v>
+        <v>54.61660153651284</v>
       </c>
     </row>
     <row r="2581" spans="1:2">
@@ -21007,7 +21007,7 @@
         <v>2583</v>
       </c>
       <c r="B2583">
-        <v>53.91906315739498</v>
+        <v>53.91906315739497</v>
       </c>
     </row>
     <row r="2584" spans="1:2">
@@ -21047,7 +21047,7 @@
         <v>2588</v>
       </c>
       <c r="B2588">
-        <v>71.29237294344726</v>
+        <v>71.29237294344725</v>
       </c>
     </row>
     <row r="2589" spans="1:2">
@@ -21455,7 +21455,7 @@
         <v>2639</v>
       </c>
       <c r="B2639">
-        <v>21.19782822637511</v>
+        <v>21.1978282263751</v>
       </c>
     </row>
     <row r="2640" spans="1:2">
@@ -21559,7 +21559,7 @@
         <v>2652</v>
       </c>
       <c r="B2652">
-        <v>78.42604440260693</v>
+        <v>78.42604440260692</v>
       </c>
     </row>
     <row r="2653" spans="1:2">
@@ -21783,7 +21783,7 @@
         <v>2680</v>
       </c>
       <c r="B2680">
-        <v>225.7376158436549</v>
+        <v>225.7376158436548</v>
       </c>
     </row>
     <row r="2681" spans="1:2">
@@ -21823,7 +21823,7 @@
         <v>2685</v>
       </c>
       <c r="B2685">
-        <v>25.2924702430321</v>
+        <v>25.29247024303209</v>
       </c>
     </row>
     <row r="2686" spans="1:2">
@@ -21831,7 +21831,7 @@
         <v>2686</v>
       </c>
       <c r="B2686">
-        <v>9.915062151575169</v>
+        <v>9.915062151575167</v>
       </c>
     </row>
     <row r="2687" spans="1:2">
@@ -21951,7 +21951,7 @@
         <v>2701</v>
       </c>
       <c r="B2701">
-        <v>26.4964939911645</v>
+        <v>26.49649399116449</v>
       </c>
     </row>
     <row r="2702" spans="1:2">
@@ -22055,7 +22055,7 @@
         <v>2714</v>
       </c>
       <c r="B2714">
-        <v>0.8879114644115046</v>
+        <v>0.8879114644115045</v>
       </c>
     </row>
     <row r="2715" spans="1:2">
@@ -22199,7 +22199,7 @@
         <v>2732</v>
       </c>
       <c r="B2732">
-        <v>128.3530697139803</v>
+        <v>128.3530697139802</v>
       </c>
     </row>
     <row r="2733" spans="1:2">
@@ -22215,7 +22215,7 @@
         <v>2734</v>
       </c>
       <c r="B2734">
-        <v>78.62928916791859</v>
+        <v>78.62928916791857</v>
       </c>
     </row>
     <row r="2735" spans="1:2">
@@ -22231,7 +22231,7 @@
         <v>2736</v>
       </c>
       <c r="B2736">
-        <v>21.75926441513865</v>
+        <v>21.75926441513864</v>
       </c>
     </row>
     <row r="2737" spans="1:2">
@@ -22279,7 +22279,7 @@
         <v>2742</v>
       </c>
       <c r="B2742">
-        <v>21.97296009368895</v>
+        <v>21.97296009368894</v>
       </c>
     </row>
     <row r="2743" spans="1:2">
@@ -22295,7 +22295,7 @@
         <v>2744</v>
       </c>
       <c r="B2744">
-        <v>69.06040252721019</v>
+        <v>69.06040252721017</v>
       </c>
     </row>
     <row r="2745" spans="1:2">
@@ -22311,7 +22311,7 @@
         <v>2746</v>
       </c>
       <c r="B2746">
-        <v>207.3313478747368</v>
+        <v>207.3313478747367</v>
       </c>
     </row>
     <row r="2747" spans="1:2">
@@ -22599,7 +22599,7 @@
         <v>2782</v>
       </c>
       <c r="B2782">
-        <v>69.43354057363382</v>
+        <v>69.43354057363381</v>
       </c>
     </row>
     <row r="2783" spans="1:2">
@@ -22711,7 +22711,7 @@
         <v>2796</v>
       </c>
       <c r="B2796">
-        <v>201.941478402716</v>
+        <v>201.9414784027159</v>
       </c>
     </row>
     <row r="2797" spans="1:2">
@@ -22775,7 +22775,7 @@
         <v>2804</v>
       </c>
       <c r="B2804">
-        <v>78.63002184551524</v>
+        <v>78.63002184551522</v>
       </c>
     </row>
     <row r="2805" spans="1:2">
@@ -22823,7 +22823,7 @@
         <v>2810</v>
       </c>
       <c r="B2810">
-        <v>20.4419980176675</v>
+        <v>20.44199801766749</v>
       </c>
     </row>
     <row r="2811" spans="1:2">
@@ -23079,7 +23079,7 @@
         <v>2842</v>
       </c>
       <c r="B2842">
-        <v>155.3083078019614</v>
+        <v>155.3083078019613</v>
       </c>
     </row>
     <row r="2843" spans="1:2">
@@ -23127,7 +23127,7 @@
         <v>2848</v>
       </c>
       <c r="B2848">
-        <v>324.3818692188075</v>
+        <v>324.3818692188074</v>
       </c>
     </row>
     <row r="2849" spans="1:2">
@@ -23175,7 +23175,7 @@
         <v>2854</v>
       </c>
       <c r="B2854">
-        <v>55.5737715487808</v>
+        <v>55.57377154878079</v>
       </c>
     </row>
     <row r="2855" spans="1:2">
@@ -23247,7 +23247,7 @@
         <v>2863</v>
       </c>
       <c r="B2863">
-        <v>44.67991074228448</v>
+        <v>44.67991074228447</v>
       </c>
     </row>
     <row r="2864" spans="1:2">
@@ -23255,7 +23255,7 @@
         <v>2864</v>
       </c>
       <c r="B2864">
-        <v>158.9901592606639</v>
+        <v>158.9901592606638</v>
       </c>
     </row>
     <row r="2865" spans="1:2">
@@ -23295,7 +23295,7 @@
         <v>2869</v>
       </c>
       <c r="B2869">
-        <v>325.161145110608</v>
+        <v>325.1611451106079</v>
       </c>
     </row>
     <row r="2870" spans="1:2">
@@ -23399,7 +23399,7 @@
         <v>2882</v>
       </c>
       <c r="B2882">
-        <v>18.11123921571846</v>
+        <v>18.11123921571845</v>
       </c>
     </row>
     <row r="2883" spans="1:2">
@@ -23471,7 +23471,7 @@
         <v>2891</v>
       </c>
       <c r="B2891">
-        <v>271.3292705872148</v>
+        <v>271.3292705872147</v>
       </c>
     </row>
     <row r="2892" spans="1:2">
@@ -23599,7 +23599,7 @@
         <v>2907</v>
       </c>
       <c r="B2907">
-        <v>64.28237746260268</v>
+        <v>64.28237746260267</v>
       </c>
     </row>
     <row r="2908" spans="1:2">
@@ -23623,7 +23623,7 @@
         <v>2910</v>
       </c>
       <c r="B2910">
-        <v>111.5267184073817</v>
+        <v>111.5267184073816</v>
       </c>
     </row>
     <row r="2911" spans="1:2">
@@ -23719,7 +23719,7 @@
         <v>2922</v>
       </c>
       <c r="B2922">
-        <v>430.1224861098982</v>
+        <v>430.1224861098981</v>
       </c>
     </row>
     <row r="2923" spans="1:2">
@@ -23895,7 +23895,7 @@
         <v>2944</v>
       </c>
       <c r="B2944">
-        <v>307.4236066377074</v>
+        <v>307.4236066377073</v>
       </c>
     </row>
     <row r="2945" spans="1:2">
@@ -23951,7 +23951,7 @@
         <v>2951</v>
       </c>
       <c r="B2951">
-        <v>26.66257734877389</v>
+        <v>26.66257734877388</v>
       </c>
     </row>
     <row r="2952" spans="1:2">
@@ -23975,7 +23975,7 @@
         <v>2954</v>
       </c>
       <c r="B2954">
-        <v>12.0983534682906</v>
+        <v>12.09835346829059</v>
       </c>
     </row>
     <row r="2955" spans="1:2">
@@ -24271,7 +24271,7 @@
         <v>2991</v>
       </c>
       <c r="B2991">
-        <v>357.3212955381107</v>
+        <v>357.3212955381106</v>
       </c>
     </row>
     <row r="2992" spans="1:2">
@@ -24287,7 +24287,7 @@
         <v>2993</v>
       </c>
       <c r="B2993">
-        <v>375.6479067987207</v>
+        <v>375.6479067987206</v>
       </c>
     </row>
     <row r="2994" spans="1:2">
@@ -24303,7 +24303,7 @@
         <v>2995</v>
       </c>
       <c r="B2995">
-        <v>287.7438863915981</v>
+        <v>287.743886391598</v>
       </c>
     </row>
     <row r="2996" spans="1:2">
@@ -24343,7 +24343,7 @@
         <v>3000</v>
       </c>
       <c r="B3000">
-        <v>36.78234962085401</v>
+        <v>36.782349620854</v>
       </c>
     </row>
     <row r="3001" spans="1:2">
@@ -24807,7 +24807,7 @@
         <v>3058</v>
       </c>
       <c r="B3058">
-        <v>401.6726150318481</v>
+        <v>401.672615031848</v>
       </c>
     </row>
     <row r="3059" spans="1:2">
@@ -24815,7 +24815,7 @@
         <v>3059</v>
       </c>
       <c r="B3059">
-        <v>381.4307845335863</v>
+        <v>381.4307845335862</v>
       </c>
     </row>
     <row r="3060" spans="1:2">
@@ -24975,7 +24975,7 @@
         <v>3079</v>
       </c>
       <c r="B3079">
-        <v>88.30670001424326</v>
+        <v>88.30670001424325</v>
       </c>
     </row>
     <row r="3080" spans="1:2">
@@ -24983,7 +24983,7 @@
         <v>3080</v>
       </c>
       <c r="B3080">
-        <v>93.57992721287685</v>
+        <v>93.57992721287684</v>
       </c>
     </row>
     <row r="3081" spans="1:2">
@@ -25119,7 +25119,7 @@
         <v>3097</v>
       </c>
       <c r="B3097">
-        <v>97.28874120713617</v>
+        <v>97.28874120713616</v>
       </c>
     </row>
     <row r="3098" spans="1:2">
@@ -25191,7 +25191,7 @@
         <v>3106</v>
       </c>
       <c r="B3106">
-        <v>362.9479664093699</v>
+        <v>362.9479664093698</v>
       </c>
     </row>
     <row r="3107" spans="1:2">
@@ -25215,7 +25215,7 @@
         <v>3109</v>
       </c>
       <c r="B3109">
-        <v>392.4657883523019</v>
+        <v>392.4657883523018</v>
       </c>
     </row>
     <row r="3110" spans="1:2">
@@ -25223,7 +25223,7 @@
         <v>3110</v>
       </c>
       <c r="B3110">
-        <v>425.6607726173179</v>
+        <v>425.6607726173178</v>
       </c>
     </row>
     <row r="3111" spans="1:2">
@@ -25375,7 +25375,7 @@
         <v>3129</v>
       </c>
       <c r="B3129">
-        <v>245.7230677972957</v>
+        <v>245.7230677972956</v>
       </c>
     </row>
     <row r="3130" spans="1:2">
@@ -25423,7 +25423,7 @@
         <v>3135</v>
       </c>
       <c r="B3135">
-        <v>418.5664019844427</v>
+        <v>418.5664019844426</v>
       </c>
     </row>
     <row r="3136" spans="1:2">
@@ -25503,7 +25503,7 @@
         <v>3145</v>
       </c>
       <c r="B3145">
-        <v>84.93550385652181</v>
+        <v>84.93550385652179</v>
       </c>
     </row>
     <row r="3146" spans="1:2">
@@ -25591,7 +25591,7 @@
         <v>3156</v>
       </c>
       <c r="B3156">
-        <v>449.4496418964979</v>
+        <v>449.4496418964978</v>
       </c>
     </row>
     <row r="3157" spans="1:2">
@@ -25671,7 +25671,7 @@
         <v>3166</v>
       </c>
       <c r="B3166">
-        <v>392.847366844639</v>
+        <v>392.8473668446389</v>
       </c>
     </row>
     <row r="3167" spans="1:2">
@@ -25767,7 +25767,7 @@
         <v>3178</v>
       </c>
       <c r="B3178">
-        <v>538.4708491029976</v>
+        <v>538.4708491029975</v>
       </c>
     </row>
     <row r="3179" spans="1:2">
@@ -25791,7 +25791,7 @@
         <v>3181</v>
       </c>
       <c r="B3181">
-        <v>565.0811132713704</v>
+        <v>565.0811132713703</v>
       </c>
     </row>
     <row r="3182" spans="1:2">
@@ -25831,7 +25831,7 @@
         <v>3186</v>
       </c>
       <c r="B3186">
-        <v>395.144164574628</v>
+        <v>395.1441645746279</v>
       </c>
     </row>
     <row r="3187" spans="1:2">
@@ -26055,7 +26055,7 @@
         <v>3214</v>
       </c>
       <c r="B3214">
-        <v>100.4141386847324</v>
+        <v>100.4141386847323</v>
       </c>
     </row>
     <row r="3215" spans="1:2">
@@ -26079,7 +26079,7 @@
         <v>3217</v>
       </c>
       <c r="B3217">
-        <v>25.80505148965079</v>
+        <v>25.80505148965078</v>
       </c>
     </row>
     <row r="3218" spans="1:2">
@@ -26391,7 +26391,7 @@
         <v>3256</v>
       </c>
       <c r="B3256">
-        <v>538.4169240318839</v>
+        <v>538.4169240318838</v>
       </c>
     </row>
     <row r="3257" spans="1:2">
@@ -26423,7 +26423,7 @@
         <v>3260</v>
       </c>
       <c r="B3260">
-        <v>371.6612614598104</v>
+        <v>371.6612614598102</v>
       </c>
     </row>
     <row r="3261" spans="1:2">
@@ -26551,7 +26551,7 @@
         <v>3276</v>
       </c>
       <c r="B3276">
-        <v>419.2809091766991</v>
+        <v>419.280909176699</v>
       </c>
     </row>
     <row r="3277" spans="1:2">
@@ -26615,7 +26615,7 @@
         <v>3284</v>
       </c>
       <c r="B3284">
-        <v>356.5537424878567</v>
+        <v>356.5537424878566</v>
       </c>
     </row>
     <row r="3285" spans="1:2">
@@ -26687,7 +26687,7 @@
         <v>3293</v>
       </c>
       <c r="B3293">
-        <v>90.94404629115672</v>
+        <v>90.9440462911567</v>
       </c>
     </row>
     <row r="3294" spans="1:2">
@@ -26711,7 +26711,7 @@
         <v>3296</v>
       </c>
       <c r="B3296">
-        <v>40.07667324513459</v>
+        <v>40.07667324513458</v>
       </c>
     </row>
     <row r="3297" spans="1:2">
@@ -26767,7 +26767,7 @@
         <v>3303</v>
       </c>
       <c r="B3303">
-        <v>98.06479331751142</v>
+        <v>98.0647933175114</v>
       </c>
     </row>
     <row r="3304" spans="1:2">
@@ -26799,7 +26799,7 @@
         <v>3307</v>
       </c>
       <c r="B3307">
-        <v>132.9342096548151</v>
+        <v>132.934209654815</v>
       </c>
     </row>
     <row r="3308" spans="1:2">
@@ -26967,7 +26967,7 @@
         <v>3328</v>
       </c>
       <c r="B3328">
-        <v>237.9669427591232</v>
+        <v>237.9669427591231</v>
       </c>
     </row>
     <row r="3329" spans="1:2">
@@ -27015,7 +27015,7 @@
         <v>3334</v>
       </c>
       <c r="B3334">
-        <v>46.56262840174882</v>
+        <v>46.56262840174881</v>
       </c>
     </row>
     <row r="3335" spans="1:2">
@@ -27063,7 +27063,7 @@
         <v>3340</v>
       </c>
       <c r="B3340">
-        <v>2.362296176419388</v>
+        <v>2.362296176419387</v>
       </c>
     </row>
     <row r="3341" spans="1:2">
@@ -27287,7 +27287,7 @@
         <v>3368</v>
       </c>
       <c r="B3368">
-        <v>35.68330391877009</v>
+        <v>35.68330391877008</v>
       </c>
     </row>
     <row r="3369" spans="1:2">
@@ -27439,7 +27439,7 @@
         <v>3387</v>
       </c>
       <c r="B3387">
-        <v>0.8427199102499252</v>
+        <v>0.8427199102499251</v>
       </c>
     </row>
     <row r="3388" spans="1:2">
@@ -27471,7 +27471,7 @@
         <v>3391</v>
       </c>
       <c r="B3391">
-        <v>65.36023412859137</v>
+        <v>65.36023412859136</v>
       </c>
     </row>
     <row r="3392" spans="1:2">
@@ -27495,7 +27495,7 @@
         <v>3394</v>
       </c>
       <c r="B3394">
-        <v>228.4837500901194</v>
+        <v>228.4837500901193</v>
       </c>
     </row>
     <row r="3395" spans="1:2">
@@ -27543,7 +27543,7 @@
         <v>3400</v>
       </c>
       <c r="B3400">
-        <v>339.4820614147947</v>
+        <v>339.4820614147945</v>
       </c>
     </row>
     <row r="3401" spans="1:2">
@@ -27551,7 +27551,7 @@
         <v>3401</v>
       </c>
       <c r="B3401">
-        <v>358.9997133765243</v>
+        <v>358.9997133765241</v>
       </c>
     </row>
     <row r="3402" spans="1:2">
@@ -27615,7 +27615,7 @@
         <v>3409</v>
       </c>
       <c r="B3409">
-        <v>15.81294096201155</v>
+        <v>15.81294096201154</v>
       </c>
     </row>
     <row r="3410" spans="1:2">
@@ -27687,7 +27687,7 @@
         <v>3418</v>
       </c>
       <c r="B3418">
-        <v>284.0421061022666</v>
+        <v>284.0421061022665</v>
       </c>
     </row>
     <row r="3419" spans="1:2">
@@ -27759,7 +27759,7 @@
         <v>3427</v>
       </c>
       <c r="B3427">
-        <v>393.4197345831446</v>
+        <v>393.4197345831445</v>
       </c>
     </row>
     <row r="3428" spans="1:2">
@@ -27799,7 +27799,7 @@
         <v>3432</v>
       </c>
       <c r="B3432">
-        <v>62.01002185723807</v>
+        <v>62.01002185723806</v>
       </c>
     </row>
     <row r="3433" spans="1:2">
@@ -27807,7 +27807,7 @@
         <v>3433</v>
       </c>
       <c r="B3433">
-        <v>50.55261475049984</v>
+        <v>50.55261475049983</v>
       </c>
     </row>
     <row r="3434" spans="1:2">
@@ -27911,7 +27911,7 @@
         <v>3446</v>
       </c>
       <c r="B3446">
-        <v>474.6370461721699</v>
+        <v>474.6370461721698</v>
       </c>
     </row>
     <row r="3447" spans="1:2">
@@ -27935,7 +27935,7 @@
         <v>3449</v>
       </c>
       <c r="B3449">
-        <v>526.0827362987825</v>
+        <v>526.0827362987824</v>
       </c>
     </row>
     <row r="3450" spans="1:2">
@@ -28135,7 +28135,7 @@
         <v>3474</v>
       </c>
       <c r="B3474">
-        <v>509.6408648878037</v>
+        <v>509.6408648878036</v>
       </c>
     </row>
     <row r="3475" spans="1:2">
@@ -28175,7 +28175,7 @@
         <v>3479</v>
       </c>
       <c r="B3479">
-        <v>196.4795134551845</v>
+        <v>196.4795134551844</v>
       </c>
     </row>
     <row r="3480" spans="1:2">
@@ -28495,7 +28495,7 @@
         <v>3519</v>
       </c>
       <c r="B3519">
-        <v>578.9348743399308</v>
+        <v>578.9348743399307</v>
       </c>
     </row>
     <row r="3520" spans="1:2">
@@ -28551,7 +28551,7 @@
         <v>3526</v>
       </c>
       <c r="B3526">
-        <v>324.3302887160031</v>
+        <v>324.330288716003</v>
       </c>
     </row>
     <row r="3527" spans="1:2">
@@ -28671,7 +28671,7 @@
         <v>3541</v>
       </c>
       <c r="B3541">
-        <v>391.249836612896</v>
+        <v>391.2498366128959</v>
       </c>
     </row>
     <row r="3542" spans="1:2">
@@ -28847,7 +28847,7 @@
         <v>3563</v>
       </c>
       <c r="B3563">
-        <v>541.4654489760392</v>
+        <v>541.4654489760391</v>
       </c>
     </row>
     <row r="3564" spans="1:2">
@@ -28887,7 +28887,7 @@
         <v>3568</v>
       </c>
       <c r="B3568">
-        <v>654.1327998658908</v>
+        <v>654.1327998658907</v>
       </c>
     </row>
     <row r="3569" spans="1:2">
@@ -28895,7 +28895,7 @@
         <v>3569</v>
       </c>
       <c r="B3569">
-        <v>621.4817554486303</v>
+        <v>621.4817554486302</v>
       </c>
     </row>
     <row r="3570" spans="1:2">
@@ -28927,7 +28927,7 @@
         <v>3573</v>
       </c>
       <c r="B3573">
-        <v>418.4488804979395</v>
+        <v>418.4488804979394</v>
       </c>
     </row>
     <row r="3574" spans="1:2">
@@ -28983,7 +28983,7 @@
         <v>3580</v>
       </c>
       <c r="B3580">
-        <v>47.99814896331982</v>
+        <v>47.99814896331981</v>
       </c>
     </row>
     <row r="3581" spans="1:2">
@@ -29151,7 +29151,7 @@
         <v>3601</v>
       </c>
       <c r="B3601">
-        <v>241.2036193100991</v>
+        <v>241.203619310099</v>
       </c>
     </row>
     <row r="3602" spans="1:2">
@@ -29191,7 +29191,7 @@
         <v>3606</v>
       </c>
       <c r="B3606">
-        <v>285.1232451638883</v>
+        <v>285.1232451638882</v>
       </c>
     </row>
     <row r="3607" spans="1:2">
@@ -29231,7 +29231,7 @@
         <v>3611</v>
       </c>
       <c r="B3611">
-        <v>668.0627594045031</v>
+        <v>668.062759404503</v>
       </c>
     </row>
     <row r="3612" spans="1:2">
@@ -29255,7 +29255,7 @@
         <v>3614</v>
       </c>
       <c r="B3614">
-        <v>734.1423657045926</v>
+        <v>734.1423657045925</v>
       </c>
     </row>
     <row r="3615" spans="1:2">
@@ -29319,7 +29319,7 @@
         <v>3622</v>
       </c>
       <c r="B3622">
-        <v>492.6506575634895</v>
+        <v>492.6506575634894</v>
       </c>
     </row>
     <row r="3623" spans="1:2">
@@ -29503,7 +29503,7 @@
         <v>3645</v>
       </c>
       <c r="B3645">
-        <v>404.7305182492406</v>
+        <v>404.7305182492405</v>
       </c>
     </row>
     <row r="3646" spans="1:2">
@@ -29583,7 +29583,7 @@
         <v>3655</v>
       </c>
       <c r="B3655">
-        <v>90.06805695659796</v>
+        <v>90.06805695659793</v>
       </c>
     </row>
     <row r="3656" spans="1:2">
@@ -29655,7 +29655,7 @@
         <v>3664</v>
       </c>
       <c r="B3664">
-        <v>370.7835136990196</v>
+        <v>370.7835136990195</v>
       </c>
     </row>
     <row r="3665" spans="1:2">
@@ -29903,7 +29903,7 @@
         <v>3695</v>
       </c>
       <c r="B3695">
-        <v>80.62554254776033</v>
+        <v>80.62554254776032</v>
       </c>
     </row>
     <row r="3696" spans="1:2">
@@ -29935,7 +29935,7 @@
         <v>3699</v>
       </c>
       <c r="B3699">
-        <v>22.78598018488094</v>
+        <v>22.78598018488093</v>
       </c>
     </row>
     <row r="3700" spans="1:2">
@@ -29983,7 +29983,7 @@
         <v>3705</v>
       </c>
       <c r="B3705">
-        <v>345.3124166579234</v>
+        <v>345.3124166579233</v>
       </c>
     </row>
     <row r="3706" spans="1:2">
@@ -29991,7 +29991,7 @@
         <v>3706</v>
       </c>
       <c r="B3706">
-        <v>378.6952594587213</v>
+        <v>378.6952594587212</v>
       </c>
     </row>
     <row r="3707" spans="1:2">
@@ -30031,7 +30031,7 @@
         <v>3711</v>
       </c>
       <c r="B3711">
-        <v>527.7297955360592</v>
+        <v>527.7297955360591</v>
       </c>
     </row>
     <row r="3712" spans="1:2">
@@ -30087,7 +30087,7 @@
         <v>3718</v>
       </c>
       <c r="B3718">
-        <v>244.678269544468</v>
+        <v>244.6782695444679</v>
       </c>
     </row>
     <row r="3719" spans="1:2">
@@ -30199,7 +30199,7 @@
         <v>3732</v>
       </c>
       <c r="B3732">
-        <v>402.8961866182592</v>
+        <v>402.8961866182591</v>
       </c>
     </row>
     <row r="3733" spans="1:2">
@@ -30271,7 +30271,7 @@
         <v>3741</v>
       </c>
       <c r="B3741">
-        <v>320.5045393773179</v>
+        <v>320.5045393773178</v>
       </c>
     </row>
     <row r="3742" spans="1:2">
@@ -30311,7 +30311,7 @@
         <v>3746</v>
       </c>
       <c r="B3746">
-        <v>223.6852979741172</v>
+        <v>223.6852979741171</v>
       </c>
     </row>
     <row r="3747" spans="1:2">
@@ -30543,7 +30543,7 @@
         <v>3775</v>
       </c>
       <c r="B3775">
-        <v>429.6447803168802</v>
+        <v>429.6447803168801</v>
       </c>
     </row>
     <row r="3776" spans="1:2">
@@ -30559,7 +30559,7 @@
         <v>3777</v>
       </c>
       <c r="B3777">
-        <v>555.630451487658</v>
+        <v>555.6304514876579</v>
       </c>
     </row>
     <row r="3778" spans="1:2">
@@ -30591,7 +30591,7 @@
         <v>3781</v>
       </c>
       <c r="B3781">
-        <v>765.079237616723</v>
+        <v>765.0792376167228</v>
       </c>
     </row>
     <row r="3782" spans="1:2">
@@ -30647,7 +30647,7 @@
         <v>3788</v>
       </c>
       <c r="B3788">
-        <v>511.1988305293274</v>
+        <v>511.1988305293273</v>
       </c>
     </row>
     <row r="3789" spans="1:2">
@@ -30663,7 +30663,7 @@
         <v>3790</v>
       </c>
       <c r="B3790">
-        <v>430.6016572581095</v>
+        <v>430.6016572581094</v>
       </c>
     </row>
     <row r="3791" spans="1:2">
@@ -30791,7 +30791,7 @@
         <v>3806</v>
       </c>
       <c r="B3806">
-        <v>640.702526448196</v>
+        <v>640.7025264481958</v>
       </c>
     </row>
     <row r="3807" spans="1:2">
@@ -30903,7 +30903,7 @@
         <v>3820</v>
       </c>
       <c r="B3820">
-        <v>34.54466431936304</v>
+        <v>34.54466431936303</v>
       </c>
     </row>
     <row r="3821" spans="1:2">
@@ -31087,7 +31087,7 @@
         <v>3843</v>
       </c>
       <c r="B3843">
-        <v>25.69828571026646</v>
+        <v>25.69828571026645</v>
       </c>
     </row>
     <row r="3844" spans="1:2">
@@ -31111,7 +31111,7 @@
         <v>3846</v>
       </c>
       <c r="B3846">
-        <v>60.94778587761003</v>
+        <v>60.94778587761002</v>
       </c>
     </row>
     <row r="3847" spans="1:2">
@@ -31215,7 +31215,7 @@
         <v>3859</v>
       </c>
       <c r="B3859">
-        <v>342.1252691124813</v>
+        <v>342.1252691124812</v>
       </c>
     </row>
     <row r="3860" spans="1:2">
@@ -31231,7 +31231,7 @@
         <v>3861</v>
       </c>
       <c r="B3861">
-        <v>230.5513662678752</v>
+        <v>230.5513662678751</v>
       </c>
     </row>
     <row r="3862" spans="1:2">
@@ -31295,7 +31295,7 @@
         <v>3869</v>
       </c>
       <c r="B3869">
-        <v>84.85432317881262</v>
+        <v>84.85432317881261</v>
       </c>
     </row>
     <row r="3870" spans="1:2">
@@ -31367,7 +31367,7 @@
         <v>3878</v>
       </c>
       <c r="B3878">
-        <v>296.5914079777454</v>
+        <v>296.5914079777453</v>
       </c>
     </row>
     <row r="3879" spans="1:2">
@@ -31375,7 +31375,7 @@
         <v>3879</v>
       </c>
       <c r="B3879">
-        <v>308.9267679950015</v>
+        <v>308.9267679950013</v>
       </c>
     </row>
     <row r="3880" spans="1:2">
@@ -31543,7 +31543,7 @@
         <v>3900</v>
       </c>
       <c r="B3900">
-        <v>457.6307199407294</v>
+        <v>457.6307199407293</v>
       </c>
     </row>
     <row r="3901" spans="1:2">
@@ -31599,7 +31599,7 @@
         <v>3907</v>
       </c>
       <c r="B3907">
-        <v>562.3737230162169</v>
+        <v>562.3737230162168</v>
       </c>
     </row>
     <row r="3908" spans="1:2">
@@ -31703,7 +31703,7 @@
         <v>3920</v>
       </c>
       <c r="B3920">
-        <v>488.7346423448967</v>
+        <v>488.7346423448966</v>
       </c>
     </row>
     <row r="3921" spans="1:2">
@@ -31727,7 +31727,7 @@
         <v>3923</v>
       </c>
       <c r="B3923">
-        <v>682.0501608666932</v>
+        <v>682.0501608666931</v>
       </c>
     </row>
     <row r="3924" spans="1:2">
@@ -31847,7 +31847,7 @@
         <v>3938</v>
       </c>
       <c r="B3938">
-        <v>348.9963196138966</v>
+        <v>348.9963196138965</v>
       </c>
     </row>
     <row r="3939" spans="1:2">
@@ -31919,7 +31919,7 @@
         <v>3947</v>
       </c>
       <c r="B3947">
-        <v>695.5053453226742</v>
+        <v>695.5053453226741</v>
       </c>
     </row>
     <row r="3948" spans="1:2">
@@ -31967,7 +31967,7 @@
         <v>3953</v>
       </c>
       <c r="B3953">
-        <v>899.7398115318765</v>
+        <v>899.7398115318764</v>
       </c>
     </row>
     <row r="3954" spans="1:2">
@@ -31983,7 +31983,7 @@
         <v>3955</v>
       </c>
       <c r="B3955">
-        <v>741.74199080812</v>
+        <v>741.7419908081199</v>
       </c>
     </row>
     <row r="3956" spans="1:2">
@@ -31991,7 +31991,7 @@
         <v>3956</v>
       </c>
       <c r="B3956">
-        <v>606.4085257882</v>
+        <v>606.4085257881999</v>
       </c>
     </row>
     <row r="3957" spans="1:2">
@@ -32015,7 +32015,7 @@
         <v>3959</v>
       </c>
       <c r="B3959">
-        <v>538.2132396600142</v>
+        <v>538.2132396600141</v>
       </c>
     </row>
     <row r="3960" spans="1:2">
@@ -32063,7 +32063,7 @@
         <v>3965</v>
       </c>
       <c r="B3965">
-        <v>377.7207982551723</v>
+        <v>377.7207982551722</v>
       </c>
     </row>
     <row r="3966" spans="1:2">
@@ -32143,7 +32143,7 @@
         <v>3975</v>
       </c>
       <c r="B3975">
-        <v>970.2028813572238</v>
+        <v>970.2028813572236</v>
       </c>
     </row>
     <row r="3976" spans="1:2">
@@ -32183,7 +32183,7 @@
         <v>3980</v>
       </c>
       <c r="B3980">
-        <v>625.0639627541879</v>
+        <v>625.0639627541877</v>
       </c>
     </row>
     <row r="3981" spans="1:2">
@@ -32271,7 +32271,7 @@
         <v>3991</v>
       </c>
       <c r="B3991">
-        <v>441.2870273277021</v>
+        <v>441.287027327702</v>
       </c>
     </row>
     <row r="3992" spans="1:2">
@@ -32303,7 +32303,7 @@
         <v>3995</v>
       </c>
       <c r="B3995">
-        <v>707.6106445745811</v>
+        <v>707.610644574581</v>
       </c>
     </row>
     <row r="3996" spans="1:2">
@@ -32367,7 +32367,7 @@
         <v>4003</v>
       </c>
       <c r="B4003">
-        <v>529.5078575276176</v>
+        <v>529.5078575276175</v>
       </c>
     </row>
     <row r="4004" spans="1:2">
@@ -32383,7 +32383,7 @@
         <v>4005</v>
       </c>
       <c r="B4005">
-        <v>439.328726647367</v>
+        <v>439.3287266473669</v>
       </c>
     </row>
     <row r="4006" spans="1:2">
@@ -32503,7 +32503,7 @@
         <v>4020</v>
       </c>
       <c r="B4020">
-        <v>513.4502022483239</v>
+        <v>513.4502022483236</v>
       </c>
     </row>
     <row r="4021" spans="1:2">
@@ -32671,7 +32671,7 @@
         <v>4041</v>
       </c>
       <c r="B4041">
-        <v>495.1095235778582</v>
+        <v>495.1095235778581</v>
       </c>
     </row>
     <row r="4042" spans="1:2">
@@ -32807,7 +32807,7 @@
         <v>4058</v>
       </c>
       <c r="B4058">
-        <v>339.0275082338309</v>
+        <v>339.0275082338308</v>
       </c>
     </row>
     <row r="4059" spans="1:2">
@@ -32855,7 +32855,7 @@
         <v>4064</v>
       </c>
       <c r="B4064">
-        <v>589.4057164092234</v>
+        <v>589.4057164092233</v>
       </c>
     </row>
     <row r="4065" spans="1:2">
@@ -32879,7 +32879,7 @@
         <v>4067</v>
       </c>
       <c r="B4067">
-        <v>755.5869597455206</v>
+        <v>755.5869597455205</v>
       </c>
     </row>
     <row r="4068" spans="1:2">
@@ -32903,7 +32903,7 @@
         <v>4070</v>
       </c>
       <c r="B4070">
-        <v>840.6071611322157</v>
+        <v>840.6071611322154</v>
       </c>
     </row>
     <row r="4071" spans="1:2">
@@ -32911,7 +32911,7 @@
         <v>4071</v>
       </c>
       <c r="B4071">
-        <v>905.5484795181444</v>
+        <v>905.5484795181443</v>
       </c>
     </row>
     <row r="4072" spans="1:2">
@@ -33039,7 +33039,7 @@
         <v>4087</v>
       </c>
       <c r="B4087">
-        <v>451.4234753418821</v>
+        <v>451.423475341882</v>
       </c>
     </row>
     <row r="4088" spans="1:2">
@@ -33135,7 +33135,7 @@
         <v>4099</v>
       </c>
       <c r="B4099">
-        <v>601.543253475383</v>
+        <v>601.5432534753829</v>
       </c>
     </row>
     <row r="4100" spans="1:2">
@@ -33143,7 +33143,7 @@
         <v>4100</v>
       </c>
       <c r="B4100">
-        <v>529.4624315166251</v>
+        <v>529.462431516625</v>
       </c>
     </row>
     <row r="4101" spans="1:2">
@@ -33383,7 +33383,7 @@
         <v>4130</v>
       </c>
       <c r="B4130">
-        <v>317.4967513075365</v>
+        <v>317.4967513075364</v>
       </c>
     </row>
     <row r="4131" spans="1:2">
@@ -33447,7 +33447,7 @@
         <v>4138</v>
       </c>
       <c r="B4138">
-        <v>599.9896838994392</v>
+        <v>599.9896838994391</v>
       </c>
     </row>
     <row r="4139" spans="1:2">
@@ -33471,7 +33471,7 @@
         <v>4141</v>
       </c>
       <c r="B4141">
-        <v>637.1707273612881</v>
+        <v>637.170727361288</v>
       </c>
     </row>
     <row r="4142" spans="1:2">
@@ -33535,7 +33535,7 @@
         <v>4149</v>
       </c>
       <c r="B4149">
-        <v>444.7370595948235</v>
+        <v>444.7370595948234</v>
       </c>
     </row>
     <row r="4150" spans="1:2">
@@ -33551,7 +33551,7 @@
         <v>4151</v>
       </c>
       <c r="B4151">
-        <v>328.0329482184505</v>
+        <v>328.0329482184504</v>
       </c>
     </row>
     <row r="4152" spans="1:2">
@@ -33719,7 +33719,7 @@
         <v>4172</v>
       </c>
       <c r="B4172">
-        <v>473.7865540179747</v>
+        <v>473.7865540179746</v>
       </c>
     </row>
     <row r="4173" spans="1:2">
@@ -33807,7 +33807,7 @@
         <v>4183</v>
       </c>
       <c r="B4183">
-        <v>441.9860017549095</v>
+        <v>441.9860017549094</v>
       </c>
     </row>
     <row r="4184" spans="1:2">
@@ -33855,7 +33855,7 @@
         <v>4189</v>
       </c>
       <c r="B4189">
-        <v>666.0622564946008</v>
+        <v>666.0622564946007</v>
       </c>
     </row>
     <row r="4190" spans="1:2">
@@ -33863,7 +33863,7 @@
         <v>4190</v>
       </c>
       <c r="B4190">
-        <v>696.087970547533</v>
+        <v>696.0879705475328</v>
       </c>
     </row>
     <row r="4191" spans="1:2">
@@ -33911,7 +33911,7 @@
         <v>4196</v>
       </c>
       <c r="B4196">
-        <v>600.8498473979103</v>
+        <v>600.8498473979101</v>
       </c>
     </row>
     <row r="4197" spans="1:2">
@@ -33943,7 +33943,7 @@
         <v>4200</v>
       </c>
       <c r="B4200">
-        <v>441.6053024756884</v>
+        <v>441.6053024756883</v>
       </c>
     </row>
     <row r="4201" spans="1:2">
@@ -33951,7 +33951,7 @@
         <v>4201</v>
       </c>
       <c r="B4201">
-        <v>411.3190482693863</v>
+        <v>411.3190482693862</v>
       </c>
     </row>
     <row r="4202" spans="1:2">
@@ -33991,7 +33991,7 @@
         <v>4206</v>
       </c>
       <c r="B4206">
-        <v>407.2345172035631</v>
+        <v>407.234517203563</v>
       </c>
     </row>
     <row r="4207" spans="1:2">
@@ -34015,7 +34015,7 @@
         <v>4209</v>
       </c>
       <c r="B4209">
-        <v>624.2196250918046</v>
+        <v>624.2196250918045</v>
       </c>
     </row>
     <row r="4210" spans="1:2">
@@ -34031,7 +34031,7 @@
         <v>4211</v>
       </c>
       <c r="B4211">
-        <v>651.5367766054286</v>
+        <v>651.5367766054285</v>
       </c>
     </row>
     <row r="4212" spans="1:2">
@@ -34055,7 +34055,7 @@
         <v>4214</v>
       </c>
       <c r="B4214">
-        <v>603.3292283849853</v>
+        <v>603.3292283849851</v>
       </c>
     </row>
     <row r="4215" spans="1:2">
@@ -34063,7 +34063,7 @@
         <v>4215</v>
       </c>
       <c r="B4215">
-        <v>655.5371962831559</v>
+        <v>655.5371962831558</v>
       </c>
     </row>
     <row r="4216" spans="1:2">
@@ -34071,7 +34071,7 @@
         <v>4216</v>
       </c>
       <c r="B4216">
-        <v>646.8707925989013</v>
+        <v>646.8707925989012</v>
       </c>
     </row>
     <row r="4217" spans="1:2">
@@ -34111,7 +34111,7 @@
         <v>4221</v>
       </c>
       <c r="B4221">
-        <v>385.357350309571</v>
+        <v>385.3573503095709</v>
       </c>
     </row>
     <row r="4222" spans="1:2">
@@ -34423,7 +34423,7 @@
         <v>4260</v>
       </c>
       <c r="B4260">
-        <v>525.7501006699018</v>
+        <v>525.7501006699017</v>
       </c>
     </row>
     <row r="4261" spans="1:2">
@@ -34431,7 +34431,7 @@
         <v>4261</v>
       </c>
       <c r="B4261">
-        <v>538.002228512178</v>
+        <v>538.0022285121779</v>
       </c>
     </row>
     <row r="4262" spans="1:2">
@@ -34447,7 +34447,7 @@
         <v>4263</v>
       </c>
       <c r="B4263">
-        <v>605.4742153169476</v>
+        <v>605.4742153169475</v>
       </c>
     </row>
     <row r="4264" spans="1:2">
@@ -34463,7 +34463,7 @@
         <v>4265</v>
       </c>
       <c r="B4265">
-        <v>469.1366889185738</v>
+        <v>469.1366889185737</v>
       </c>
     </row>
     <row r="4266" spans="1:2">
@@ -34503,7 +34503,7 @@
         <v>4270</v>
       </c>
       <c r="B4270">
-        <v>392.8995334895207</v>
+        <v>392.8995334895206</v>
       </c>
     </row>
     <row r="4271" spans="1:2">
@@ -34511,7 +34511,7 @@
         <v>4271</v>
       </c>
       <c r="B4271">
-        <v>323.0800476650738</v>
+        <v>323.0800476650737</v>
       </c>
     </row>
     <row r="4272" spans="1:2">
@@ -34535,7 +34535,7 @@
         <v>4274</v>
       </c>
       <c r="B4274">
-        <v>243.4403374771625</v>
+        <v>243.4403374771624</v>
       </c>
     </row>
     <row r="4275" spans="1:2">
@@ -34807,7 +34807,7 @@
         <v>4308</v>
       </c>
       <c r="B4308">
-        <v>678.8545142611299</v>
+        <v>678.8545142611297</v>
       </c>
     </row>
     <row r="4309" spans="1:2">
@@ -34815,7 +34815,7 @@
         <v>4309</v>
       </c>
       <c r="B4309">
-        <v>738.6096475469076</v>
+        <v>738.6096475469074</v>
       </c>
     </row>
     <row r="4310" spans="1:2">
@@ -34855,7 +34855,7 @@
         <v>4314</v>
       </c>
       <c r="B4314">
-        <v>505.1709454061408</v>
+        <v>505.1709454061407</v>
       </c>
     </row>
     <row r="4315" spans="1:2">
@@ -34887,7 +34887,7 @@
         <v>4318</v>
       </c>
       <c r="B4318">
-        <v>353.4032288222472</v>
+        <v>353.4032288222471</v>
       </c>
     </row>
     <row r="4319" spans="1:2">
@@ -35023,7 +35023,7 @@
         <v>4335</v>
       </c>
       <c r="B4335">
-        <v>592.4677226211571</v>
+        <v>592.467722621157</v>
       </c>
     </row>
     <row r="4336" spans="1:2">
@@ -35263,7 +35263,7 @@
         <v>4365</v>
       </c>
       <c r="B4365">
-        <v>463.4982952057682</v>
+        <v>463.4982952057681</v>
       </c>
     </row>
     <row r="4366" spans="1:2">
@@ -35335,7 +35335,7 @@
         <v>4374</v>
       </c>
       <c r="B4374">
-        <v>374.4164222942657</v>
+        <v>374.4164222942656</v>
       </c>
     </row>
     <row r="4375" spans="1:2">
@@ -35351,7 +35351,7 @@
         <v>4376</v>
       </c>
       <c r="B4376">
-        <v>431.9972615442148</v>
+        <v>431.9972615442147</v>
       </c>
     </row>
     <row r="4377" spans="1:2">
@@ -35407,7 +35407,7 @@
         <v>4383</v>
       </c>
       <c r="B4383">
-        <v>884.7199208004827</v>
+        <v>884.7199208004824</v>
       </c>
     </row>
     <row r="4384" spans="1:2">
@@ -35423,7 +35423,7 @@
         <v>4385</v>
       </c>
       <c r="B4385">
-        <v>695.9015773669444</v>
+        <v>695.9015773669443</v>
       </c>
     </row>
     <row r="4386" spans="1:2">
@@ -35471,7 +35471,7 @@
         <v>4391</v>
       </c>
       <c r="B4391">
-        <v>459.4568455826282</v>
+        <v>459.4568455826281</v>
       </c>
     </row>
     <row r="4392" spans="1:2">
@@ -35559,7 +35559,7 @@
         <v>4402</v>
       </c>
       <c r="B4402">
-        <v>567.1789157661083</v>
+        <v>567.1789157661082</v>
       </c>
     </row>
     <row r="4403" spans="1:2">
@@ -35567,7 +35567,7 @@
         <v>4403</v>
       </c>
       <c r="B4403">
-        <v>665.3111154225118</v>
+        <v>665.3111154225116</v>
       </c>
     </row>
     <row r="4404" spans="1:2">
@@ -35575,7 +35575,7 @@
         <v>4404</v>
       </c>
       <c r="B4404">
-        <v>768.7432117420672</v>
+        <v>768.7432117420669</v>
       </c>
     </row>
     <row r="4405" spans="1:2">
@@ -35631,7 +35631,7 @@
         <v>4411</v>
       </c>
       <c r="B4411">
-        <v>655.9858880433464</v>
+        <v>655.9858880433463</v>
       </c>
     </row>
     <row r="4412" spans="1:2">
@@ -35711,7 +35711,7 @@
         <v>4421</v>
       </c>
       <c r="B4421">
-        <v>195.0276395296562</v>
+        <v>195.0276395296561</v>
       </c>
     </row>
     <row r="4422" spans="1:2">
@@ -35799,7 +35799,7 @@
         <v>4432</v>
       </c>
       <c r="B4432">
-        <v>297.2238552791766</v>
+        <v>297.2238552791765</v>
       </c>
     </row>
     <row r="4433" spans="1:2">
@@ -35863,7 +35863,7 @@
         <v>4440</v>
       </c>
       <c r="B4440">
-        <v>317.561226936042</v>
+        <v>317.5612269360419</v>
       </c>
     </row>
     <row r="4441" spans="1:2">
@@ -35919,7 +35919,7 @@
         <v>4447</v>
       </c>
       <c r="B4447">
-        <v>393.1468854461509</v>
+        <v>393.1468854461508</v>
       </c>
     </row>
     <row r="4448" spans="1:2">
@@ -35927,7 +35927,7 @@
         <v>4448</v>
       </c>
       <c r="B4448">
-        <v>421.1720965891807</v>
+        <v>421.1720965891806</v>
       </c>
     </row>
     <row r="4449" spans="1:2">
@@ -35935,7 +35935,7 @@
         <v>4449</v>
       </c>
       <c r="B4449">
-        <v>484.28963390152</v>
+        <v>484.2896339015199</v>
       </c>
     </row>
     <row r="4450" spans="1:2">
@@ -36007,7 +36007,7 @@
         <v>4458</v>
       </c>
       <c r="B4458">
-        <v>707.8237072196879</v>
+        <v>707.8237072196878</v>
       </c>
     </row>
     <row r="4459" spans="1:2">
@@ -36047,7 +36047,7 @@
         <v>4463</v>
       </c>
       <c r="B4463">
-        <v>433.6835923006722</v>
+        <v>433.6835923006721</v>
       </c>
     </row>
     <row r="4464" spans="1:2">
@@ -36063,7 +36063,7 @@
         <v>4465</v>
       </c>
       <c r="B4465">
-        <v>338.2869177191337</v>
+        <v>338.2869177191336</v>
       </c>
     </row>
     <row r="4466" spans="1:2">
@@ -36071,7 +36071,7 @@
         <v>4466</v>
       </c>
       <c r="B4466">
-        <v>332.1711112843487</v>
+        <v>332.1711112843486</v>
       </c>
     </row>
     <row r="4467" spans="1:2">
@@ -36127,7 +36127,7 @@
         <v>4473</v>
       </c>
       <c r="B4473">
-        <v>692.2973897334872</v>
+        <v>692.2973897334871</v>
       </c>
     </row>
     <row r="4474" spans="1:2">
@@ -36159,7 +36159,7 @@
         <v>4477</v>
       </c>
       <c r="B4477">
-        <v>738.1190466281885</v>
+        <v>738.1190466281884</v>
       </c>
     </row>
     <row r="4478" spans="1:2">
@@ -36175,7 +36175,7 @@
         <v>4479</v>
       </c>
       <c r="B4479">
-        <v>833.2839020181459</v>
+        <v>833.2839020181457</v>
       </c>
     </row>
     <row r="4480" spans="1:2">
@@ -36191,7 +36191,7 @@
         <v>4481</v>
       </c>
       <c r="B4481">
-        <v>782.0275357825086</v>
+        <v>782.0275357825085</v>
       </c>
     </row>
     <row r="4482" spans="1:2">
@@ -36247,7 +36247,7 @@
         <v>4488</v>
       </c>
       <c r="B4488">
-        <v>420.4189040198211</v>
+        <v>420.418904019821</v>
       </c>
     </row>
     <row r="4489" spans="1:2">
@@ -36303,7 +36303,7 @@
         <v>4495</v>
       </c>
       <c r="B4495">
-        <v>475.2287565992272</v>
+        <v>475.2287565992271</v>
       </c>
     </row>
     <row r="4496" spans="1:2">
@@ -36343,7 +36343,7 @@
         <v>4500</v>
       </c>
       <c r="B4500">
-        <v>766.5539710832668</v>
+        <v>766.5539710832667</v>
       </c>
     </row>
     <row r="4501" spans="1:2">
@@ -36375,7 +36375,7 @@
         <v>4504</v>
       </c>
       <c r="B4504">
-        <v>763.5412008058282</v>
+        <v>763.5412008058281</v>
       </c>
     </row>
     <row r="4505" spans="1:2">
@@ -36399,7 +36399,7 @@
         <v>4507</v>
       </c>
       <c r="B4507">
-        <v>673.3881532480185</v>
+        <v>673.3881532480184</v>
       </c>
     </row>
     <row r="4508" spans="1:2">
@@ -36415,7 +36415,7 @@
         <v>4509</v>
       </c>
       <c r="B4509">
-        <v>622.0755173729582</v>
+        <v>622.0755173729581</v>
       </c>
     </row>
     <row r="4510" spans="1:2">
@@ -36431,7 +36431,7 @@
         <v>4511</v>
       </c>
       <c r="B4511">
-        <v>480.8612888912596</v>
+        <v>480.8612888912595</v>
       </c>
     </row>
     <row r="4512" spans="1:2">
@@ -36463,7 +36463,7 @@
         <v>4515</v>
       </c>
       <c r="B4515">
-        <v>383.3800000117229</v>
+        <v>383.3800000117228</v>
       </c>
     </row>
     <row r="4516" spans="1:2">
@@ -36511,7 +36511,7 @@
         <v>4521</v>
       </c>
       <c r="B4521">
-        <v>646.5443114618325</v>
+        <v>646.5443114618324</v>
       </c>
     </row>
     <row r="4522" spans="1:2">
@@ -36567,7 +36567,7 @@
         <v>4528</v>
       </c>
       <c r="B4528">
-        <v>527.0867976772363</v>
+        <v>527.0867976772362</v>
       </c>
     </row>
     <row r="4529" spans="1:2">
@@ -36583,7 +36583,7 @@
         <v>4530</v>
       </c>
       <c r="B4530">
-        <v>624.9569918250766</v>
+        <v>624.9569918250764</v>
       </c>
     </row>
     <row r="4531" spans="1:2">
@@ -36719,7 +36719,7 @@
         <v>4547</v>
       </c>
       <c r="B4547">
-        <v>576.7975072549737</v>
+        <v>576.7975072549735</v>
       </c>
     </row>
     <row r="4548" spans="1:2">
@@ -36743,7 +36743,7 @@
         <v>4550</v>
       </c>
       <c r="B4550">
-        <v>603.6513134564741</v>
+        <v>603.651313456474</v>
       </c>
     </row>
     <row r="4551" spans="1:2">
@@ -36815,7 +36815,7 @@
         <v>4559</v>
       </c>
       <c r="B4559">
-        <v>342.8576536380961</v>
+        <v>342.857653638096</v>
       </c>
     </row>
     <row r="4560" spans="1:2">
@@ -36855,7 +36855,7 @@
         <v>4564</v>
       </c>
       <c r="B4564">
-        <v>238.6275248802659</v>
+        <v>238.6275248802658</v>
       </c>
     </row>
     <row r="4565" spans="1:2">
@@ -36967,7 +36967,7 @@
         <v>4578</v>
       </c>
       <c r="B4578">
-        <v>478.929364604404</v>
+        <v>478.9293646044039</v>
       </c>
     </row>
     <row r="4579" spans="1:2">
@@ -37031,7 +37031,7 @@
         <v>4586</v>
       </c>
       <c r="B4586">
-        <v>182.5231775230926</v>
+        <v>182.5231775230925</v>
       </c>
     </row>
     <row r="4587" spans="1:2">
@@ -37071,7 +37071,7 @@
         <v>4591</v>
       </c>
       <c r="B4591">
-        <v>414.0595555519085</v>
+        <v>414.0595555519084</v>
       </c>
     </row>
     <row r="4592" spans="1:2">
@@ -37087,7 +37087,7 @@
         <v>4593</v>
       </c>
       <c r="B4593">
-        <v>520.4159146952268</v>
+        <v>520.4159146952267</v>
       </c>
     </row>
     <row r="4594" spans="1:2">
@@ -37135,7 +37135,7 @@
         <v>4599</v>
       </c>
       <c r="B4599">
-        <v>701.6000506426756</v>
+        <v>701.6000506426755</v>
       </c>
     </row>
     <row r="4600" spans="1:2">
@@ -37143,7 +37143,7 @@
         <v>4600</v>
       </c>
       <c r="B4600">
-        <v>747.6593881497313</v>
+        <v>747.6593881497312</v>
       </c>
     </row>
     <row r="4601" spans="1:2">
@@ -37151,7 +37151,7 @@
         <v>4601</v>
       </c>
       <c r="B4601">
-        <v>751.1047312802341</v>
+        <v>751.1047312802339</v>
       </c>
     </row>
     <row r="4602" spans="1:2">
@@ -37215,7 +37215,7 @@
         <v>4609</v>
       </c>
       <c r="B4609">
-        <v>277.7167538748388</v>
+        <v>277.7167538748387</v>
       </c>
     </row>
     <row r="4610" spans="1:2">
@@ -37415,7 +37415,7 @@
         <v>4634</v>
       </c>
       <c r="B4634">
-        <v>369.2750770630297</v>
+        <v>369.2750770630296</v>
       </c>
     </row>
     <row r="4635" spans="1:2">
@@ -37487,7 +37487,7 @@
         <v>4643</v>
       </c>
       <c r="B4643">
-        <v>572.7460932165193</v>
+        <v>572.7460932165191</v>
       </c>
     </row>
     <row r="4644" spans="1:2">
@@ -37687,7 +37687,7 @@
         <v>4668</v>
       </c>
       <c r="B4668">
-        <v>508.4527548970706</v>
+        <v>508.4527548970705</v>
       </c>
     </row>
     <row r="4669" spans="1:2">
@@ -37703,7 +37703,7 @@
         <v>4670</v>
       </c>
       <c r="B4670">
-        <v>559.6891923020789</v>
+        <v>559.6891923020788</v>
       </c>
     </row>
     <row r="4671" spans="1:2">
@@ -37735,7 +37735,7 @@
         <v>4674</v>
       </c>
       <c r="B4674">
-        <v>626.763481707385</v>
+        <v>626.7634817073849</v>
       </c>
     </row>
     <row r="4675" spans="1:2">
@@ -37927,7 +37927,7 @@
         <v>4698</v>
       </c>
       <c r="B4698">
-        <v>543.989962903068</v>
+        <v>543.9899629030679</v>
       </c>
     </row>
     <row r="4699" spans="1:2">
@@ -37935,7 +37935,7 @@
         <v>4699</v>
       </c>
       <c r="B4699">
-        <v>496.5619836454638</v>
+        <v>496.5619836454637</v>
       </c>
     </row>
     <row r="4700" spans="1:2">
@@ -38015,7 +38015,7 @@
         <v>4709</v>
       </c>
       <c r="B4709">
-        <v>155.9263946224982</v>
+        <v>155.9263946224981</v>
       </c>
     </row>
     <row r="4710" spans="1:2">
@@ -38031,7 +38031,7 @@
         <v>4711</v>
       </c>
       <c r="B4711">
-        <v>392.6486646804266</v>
+        <v>392.6486646804265</v>
       </c>
     </row>
     <row r="4712" spans="1:2">
@@ -38247,7 +38247,7 @@
         <v>4738</v>
       </c>
       <c r="B4738">
-        <v>691.9421876346296</v>
+        <v>691.9421876346295</v>
       </c>
     </row>
     <row r="4739" spans="1:2">
@@ -38271,7 +38271,7 @@
         <v>4741</v>
       </c>
       <c r="B4741">
-        <v>660.2108001366885</v>
+        <v>660.2108001366884</v>
       </c>
     </row>
     <row r="4742" spans="1:2">
@@ -38303,7 +38303,7 @@
         <v>4745</v>
       </c>
       <c r="B4745">
-        <v>770.8744243352124</v>
+        <v>770.8744243352123</v>
       </c>
     </row>
     <row r="4746" spans="1:2">
@@ -38439,7 +38439,7 @@
         <v>4762</v>
       </c>
       <c r="B4762">
-        <v>792.9541033169195</v>
+        <v>792.9541033169194</v>
       </c>
     </row>
     <row r="4763" spans="1:2">
@@ -38463,7 +38463,7 @@
         <v>4765</v>
       </c>
       <c r="B4765">
-        <v>869.4538503966131</v>
+        <v>869.453850396613</v>
       </c>
     </row>
     <row r="4766" spans="1:2">
@@ -38559,7 +38559,7 @@
         <v>4777</v>
       </c>
       <c r="B4777">
-        <v>452.9790964150965</v>
+        <v>452.9790964150964</v>
       </c>
     </row>
     <row r="4778" spans="1:2">
@@ -38567,7 +38567,7 @@
         <v>4778</v>
       </c>
       <c r="B4778">
-        <v>422.9788795425279</v>
+        <v>422.9788795425278</v>
       </c>
     </row>
     <row r="4779" spans="1:2">
@@ -38647,7 +38647,7 @@
         <v>4788</v>
       </c>
       <c r="B4788">
-        <v>819.6698730592104</v>
+        <v>819.6698730592102</v>
       </c>
     </row>
     <row r="4789" spans="1:2">
@@ -38663,7 +38663,7 @@
         <v>4790</v>
       </c>
       <c r="B4790">
-        <v>850.4042328836257</v>
+        <v>850.4042328836256</v>
       </c>
     </row>
     <row r="4791" spans="1:2">
@@ -38695,7 +38695,7 @@
         <v>4794</v>
       </c>
       <c r="B4794">
-        <v>716.3805023354832</v>
+        <v>716.380502335483</v>
       </c>
     </row>
     <row r="4795" spans="1:2">
@@ -38751,7 +38751,7 @@
         <v>4801</v>
       </c>
       <c r="B4801">
-        <v>490.3268972979437</v>
+        <v>490.3268972979436</v>
       </c>
     </row>
     <row r="4802" spans="1:2">
@@ -38783,7 +38783,7 @@
         <v>4805</v>
       </c>
       <c r="B4805">
-        <v>404.8600556483289</v>
+        <v>404.8600556483288</v>
       </c>
     </row>
     <row r="4806" spans="1:2">
@@ -38815,7 +38815,7 @@
         <v>4809</v>
       </c>
       <c r="B4809">
-        <v>816.5234623881422</v>
+        <v>816.5234623881421</v>
       </c>
     </row>
     <row r="4810" spans="1:2">
@@ -38871,7 +38871,7 @@
         <v>4816</v>
       </c>
       <c r="B4816">
-        <v>885.4057070309502</v>
+        <v>885.40570703095</v>
       </c>
     </row>
     <row r="4817" spans="1:2">
@@ -38991,7 +38991,7 @@
         <v>4831</v>
       </c>
       <c r="B4831">
-        <v>492.5354806452956</v>
+        <v>492.5354806452955</v>
       </c>
     </row>
     <row r="4832" spans="1:2">
@@ -39103,7 +39103,7 @@
         <v>4845</v>
       </c>
       <c r="B4845">
-        <v>699.8504165418673</v>
+        <v>699.8504165418672</v>
       </c>
     </row>
     <row r="4846" spans="1:2">
@@ -39271,7 +39271,7 @@
         <v>4866</v>
       </c>
       <c r="B4866">
-        <v>667.491857021191</v>
+        <v>667.4918570211908</v>
       </c>
     </row>
     <row r="4867" spans="1:2">
@@ -39399,7 +39399,7 @@
         <v>4882</v>
       </c>
       <c r="B4882">
-        <v>894.9861992847896</v>
+        <v>894.9861992847893</v>
       </c>
     </row>
     <row r="4883" spans="1:2">
@@ -39599,7 +39599,7 @@
         <v>4907</v>
       </c>
       <c r="B4907">
-        <v>686.0699232329723</v>
+        <v>686.0699232329721</v>
       </c>
     </row>
     <row r="4908" spans="1:2">
@@ -39799,7 +39799,7 @@
         <v>4932</v>
       </c>
       <c r="B4932">
-        <v>557.2338431401743</v>
+        <v>557.2338431401741</v>
       </c>
     </row>
     <row r="4933" spans="1:2">
@@ -39815,7 +39815,7 @@
         <v>4934</v>
       </c>
       <c r="B4934">
-        <v>756.1505353528664</v>
+        <v>756.1505353528663</v>
       </c>
     </row>
     <row r="4935" spans="1:2">
@@ -39927,7 +39927,7 @@
         <v>4948</v>
       </c>
       <c r="B4948">
-        <v>358.4305694194439</v>
+        <v>358.4305694194438</v>
       </c>
     </row>
     <row r="4949" spans="1:2">
@@ -39935,7 +39935,7 @@
         <v>4949</v>
       </c>
       <c r="B4949">
-        <v>413.4271082504773</v>
+        <v>413.4271082504772</v>
       </c>
     </row>
     <row r="4950" spans="1:2">
@@ -40023,7 +40023,7 @@
         <v>4960</v>
       </c>
       <c r="B4960">
-        <v>728.063486220679</v>
+        <v>728.0634862206789</v>
       </c>
     </row>
     <row r="4961" spans="1:2">
@@ -40047,7 +40047,7 @@
         <v>4963</v>
       </c>
       <c r="B4963">
-        <v>563.5896747556228</v>
+        <v>563.5896747556227</v>
       </c>
     </row>
     <row r="4964" spans="1:2">
@@ -40255,7 +40255,7 @@
         <v>4989</v>
       </c>
       <c r="B4989">
-        <v>368.7522383300579</v>
+        <v>368.7522383300578</v>
       </c>
     </row>
     <row r="4990" spans="1:2">
@@ -40359,7 +40359,7 @@
         <v>5002</v>
       </c>
       <c r="B5002">
-        <v>480.9228338093785</v>
+        <v>480.9228338093784</v>
       </c>
     </row>
     <row r="5003" spans="1:2">
@@ -40383,7 +40383,7 @@
         <v>5005</v>
       </c>
       <c r="B5005">
-        <v>444.546270348655</v>
+        <v>444.5462703486549</v>
       </c>
     </row>
     <row r="5006" spans="1:2">
@@ -40439,7 +40439,7 @@
         <v>5012</v>
       </c>
       <c r="B5012">
-        <v>411.0321317225368</v>
+        <v>411.0321317225367</v>
       </c>
     </row>
     <row r="5013" spans="1:2">
@@ -40527,7 +40527,7 @@
         <v>5023</v>
       </c>
       <c r="B5023">
-        <v>340.362739885972</v>
+        <v>340.3627398859719</v>
       </c>
     </row>
     <row r="5024" spans="1:2">
@@ -40535,7 +40535,7 @@
         <v>5024</v>
       </c>
       <c r="B5024">
-        <v>384.1358302204305</v>
+        <v>384.1358302204304</v>
       </c>
     </row>
     <row r="5025" spans="1:2">
@@ -40575,7 +40575,7 @@
         <v>5029</v>
       </c>
       <c r="B5029">
-        <v>380.2623103024435</v>
+        <v>380.2623103024434</v>
       </c>
     </row>
     <row r="5030" spans="1:2">
@@ -40615,7 +40615,7 @@
         <v>5034</v>
       </c>
       <c r="B5034">
-        <v>395.1547151320198</v>
+        <v>395.1547151320197</v>
       </c>
     </row>
     <row r="5035" spans="1:2">
@@ -40639,7 +40639,7 @@
         <v>5037</v>
       </c>
       <c r="B5037">
-        <v>346.8237840043</v>
+        <v>346.8237840042999</v>
       </c>
     </row>
     <row r="5038" spans="1:2">
@@ -40767,7 +40767,7 @@
         <v>5053</v>
       </c>
       <c r="B5053">
-        <v>410.176071218607</v>
+        <v>410.1760712186069</v>
       </c>
     </row>
     <row r="5054" spans="1:2">
@@ -40863,7 +40863,7 @@
         <v>5065</v>
       </c>
       <c r="B5065">
-        <v>275.9929100254328</v>
+        <v>275.9929100254327</v>
       </c>
     </row>
     <row r="5066" spans="1:2">
@@ -40911,7 +40911,7 @@
         <v>5071</v>
       </c>
       <c r="B5071">
-        <v>349.8450533418598</v>
+        <v>349.8450533418597</v>
       </c>
     </row>
     <row r="5072" spans="1:2">
@@ -40967,7 +40967,7 @@
         <v>5078</v>
       </c>
       <c r="B5078">
-        <v>669.9401724781677</v>
+        <v>669.9401724781676</v>
       </c>
     </row>
     <row r="5079" spans="1:2">
@@ -41007,7 +41007,7 @@
         <v>5083</v>
       </c>
       <c r="B5083">
-        <v>564.7569767026109</v>
+        <v>564.7569767026108</v>
       </c>
     </row>
     <row r="5084" spans="1:2">
@@ -41039,7 +41039,7 @@
         <v>5087</v>
       </c>
       <c r="B5087">
-        <v>346.9711987367467</v>
+        <v>346.9711987367466</v>
       </c>
     </row>
     <row r="5088" spans="1:2">
@@ -41047,7 +41047,7 @@
         <v>5088</v>
       </c>
       <c r="B5088">
-        <v>314.4277113906749</v>
+        <v>314.4277113906748</v>
       </c>
     </row>
     <row r="5089" spans="1:2">
@@ -41095,7 +41095,7 @@
         <v>5094</v>
       </c>
       <c r="B5094">
-        <v>327.8368836935861</v>
+        <v>327.836883693586</v>
       </c>
     </row>
     <row r="5095" spans="1:2">
@@ -41135,7 +41135,7 @@
         <v>5099</v>
       </c>
       <c r="B5099">
-        <v>639.0794990360894</v>
+        <v>639.0794990360893</v>
       </c>
     </row>
     <row r="5100" spans="1:2">
@@ -41143,7 +41143,7 @@
         <v>5100</v>
       </c>
       <c r="B5100">
-        <v>596.7231141025198</v>
+        <v>596.7231141025197</v>
       </c>
     </row>
     <row r="5101" spans="1:2">
@@ -41231,7 +41231,7 @@
         <v>5111</v>
       </c>
       <c r="B5111">
-        <v>436.0337289596975</v>
+        <v>436.0337289596974</v>
       </c>
     </row>
     <row r="5112" spans="1:2">
@@ -41247,7 +41247,7 @@
         <v>5113</v>
       </c>
       <c r="B5113">
-        <v>397.6815736273579</v>
+        <v>397.6815736273578</v>
       </c>
     </row>
     <row r="5114" spans="1:2">
@@ -41295,7 +41295,7 @@
         <v>5119</v>
       </c>
       <c r="B5119">
-        <v>487.5752533159523</v>
+        <v>487.5752533159522</v>
       </c>
     </row>
     <row r="5120" spans="1:2">
@@ -41367,7 +41367,7 @@
         <v>5128</v>
       </c>
       <c r="B5128">
-        <v>767.5155371611147</v>
+        <v>767.5155371611146</v>
       </c>
     </row>
     <row r="5129" spans="1:2">
@@ -41567,7 +41567,7 @@
         <v>5153</v>
       </c>
       <c r="B5153">
-        <v>621.6933527385438</v>
+        <v>621.6933527385437</v>
       </c>
     </row>
     <row r="5154" spans="1:2">
@@ -41591,7 +41591,7 @@
         <v>5156</v>
       </c>
       <c r="B5156">
-        <v>558.1350365840578</v>
+        <v>558.1350365840577</v>
       </c>
     </row>
     <row r="5157" spans="1:2">
@@ -41735,7 +41735,7 @@
         <v>5174</v>
       </c>
       <c r="B5174">
-        <v>696.5176126902105</v>
+        <v>696.5176126902104</v>
       </c>
     </row>
     <row r="5175" spans="1:2">
@@ -41791,7 +41791,7 @@
         <v>5181</v>
       </c>
       <c r="B5181">
-        <v>604.4856867035429</v>
+        <v>604.4856867035428</v>
       </c>
     </row>
     <row r="5182" spans="1:2">
@@ -41807,7 +41807,7 @@
         <v>5183</v>
       </c>
       <c r="B5183">
-        <v>497.8462209368779</v>
+        <v>497.8462209368778</v>
       </c>
     </row>
     <row r="5184" spans="1:2">
@@ -41831,7 +41831,7 @@
         <v>5186</v>
       </c>
       <c r="B5186">
-        <v>412.0482090135757</v>
+        <v>412.0482090135756</v>
       </c>
     </row>
     <row r="5187" spans="1:2">
@@ -41895,7 +41895,7 @@
         <v>5194</v>
       </c>
       <c r="B5194">
-        <v>541.1207974345734</v>
+        <v>541.1207974345733</v>
       </c>
     </row>
     <row r="5195" spans="1:2">
@@ -41911,7 +41911,7 @@
         <v>5196</v>
       </c>
       <c r="B5196">
-        <v>453.8776522196322</v>
+        <v>453.8776522196321</v>
       </c>
     </row>
     <row r="5197" spans="1:2">
@@ -42207,7 +42207,7 @@
         <v>5233</v>
       </c>
       <c r="B5233">
-        <v>58.84086887356975</v>
+        <v>58.84086887356974</v>
       </c>
     </row>
     <row r="5234" spans="1:2">
@@ -42319,7 +42319,7 @@
         <v>5247</v>
       </c>
       <c r="B5247">
-        <v>493.8115119476271</v>
+        <v>493.811511947627</v>
       </c>
     </row>
     <row r="5248" spans="1:2">
@@ -42503,7 +42503,7 @@
         <v>5270</v>
       </c>
       <c r="B5270">
-        <v>535.3956546943241</v>
+        <v>535.395654694324</v>
       </c>
     </row>
     <row r="5271" spans="1:2">
@@ -42543,7 +42543,7 @@
         <v>5275</v>
       </c>
       <c r="B5275">
-        <v>439.2953165489596</v>
+        <v>439.2953165489595</v>
       </c>
     </row>
     <row r="5276" spans="1:2">
@@ -42615,7 +42615,7 @@
         <v>5284</v>
       </c>
       <c r="B5284">
-        <v>96.23749539145793</v>
+        <v>96.23749539145791</v>
       </c>
     </row>
     <row r="5285" spans="1:2">
@@ -42639,7 +42639,7 @@
         <v>5287</v>
       </c>
       <c r="B5287">
-        <v>260.485642156745</v>
+        <v>260.4856421567449</v>
       </c>
     </row>
     <row r="5288" spans="1:2">
@@ -42663,7 +42663,7 @@
         <v>5290</v>
       </c>
       <c r="B5290">
-        <v>477.5654119904741</v>
+        <v>477.565411990474</v>
       </c>
     </row>
     <row r="5291" spans="1:2">
@@ -42687,7 +42687,7 @@
         <v>5293</v>
       </c>
       <c r="B5293">
-        <v>598.7924887065076</v>
+        <v>598.7924887065075</v>
       </c>
     </row>
     <row r="5294" spans="1:2">
@@ -42735,7 +42735,7 @@
         <v>5299</v>
       </c>
       <c r="B5299">
-        <v>588.1516654347915</v>
+        <v>588.1516654347914</v>
       </c>
     </row>
     <row r="5300" spans="1:2">
@@ -42879,7 +42879,7 @@
         <v>5317</v>
       </c>
       <c r="B5317">
-        <v>605.2840122128564</v>
+        <v>605.2840122128563</v>
       </c>
     </row>
     <row r="5318" spans="1:2">
@@ -42903,7 +42903,7 @@
         <v>5320</v>
       </c>
       <c r="B5320">
-        <v>705.0366016420185</v>
+        <v>705.0366016420184</v>
       </c>
     </row>
     <row r="5321" spans="1:2">
@@ -42943,7 +42943,7 @@
         <v>5325</v>
       </c>
       <c r="B5325">
-        <v>488.6393942573317</v>
+        <v>488.6393942573316</v>
       </c>
     </row>
     <row r="5326" spans="1:2">
@@ -42951,7 +42951,7 @@
         <v>5326</v>
       </c>
       <c r="B5326">
-        <v>452.6341518025921</v>
+        <v>452.634151802592</v>
       </c>
     </row>
     <row r="5327" spans="1:2">
@@ -43015,7 +43015,7 @@
         <v>5334</v>
       </c>
       <c r="B5334">
-        <v>244.1879616967876</v>
+        <v>244.1879616967875</v>
       </c>
     </row>
     <row r="5335" spans="1:2">
@@ -43087,7 +43087,7 @@
         <v>5343</v>
       </c>
       <c r="B5343">
-        <v>610.0560879353791</v>
+        <v>610.056087935379</v>
       </c>
     </row>
     <row r="5344" spans="1:2">
@@ -43207,7 +43207,7 @@
         <v>5358</v>
       </c>
       <c r="B5358">
-        <v>288.5826557042468</v>
+        <v>288.5826557042467</v>
       </c>
     </row>
     <row r="5359" spans="1:2">
@@ -43223,7 +43223,7 @@
         <v>5360</v>
       </c>
       <c r="B5360">
-        <v>410.4706076124617</v>
+        <v>410.4706076124616</v>
       </c>
     </row>
     <row r="5361" spans="1:2">
@@ -43271,7 +43271,7 @@
         <v>5366</v>
       </c>
       <c r="B5366">
-        <v>739.0504263890542</v>
+        <v>739.0504263890541</v>
       </c>
     </row>
     <row r="5367" spans="1:2">
@@ -43303,7 +43303,7 @@
         <v>5370</v>
       </c>
       <c r="B5370">
-        <v>610.8066428653908</v>
+        <v>610.8066428653906</v>
       </c>
     </row>
     <row r="5371" spans="1:2">
@@ -43311,7 +43311,7 @@
         <v>5371</v>
       </c>
       <c r="B5371">
-        <v>578.5688286126428</v>
+        <v>578.5688286126427</v>
       </c>
     </row>
     <row r="5372" spans="1:2">
@@ -43327,7 +43327,7 @@
         <v>5373</v>
       </c>
       <c r="B5373">
-        <v>479.1362727576989</v>
+        <v>479.1362727576988</v>
       </c>
     </row>
     <row r="5374" spans="1:2">
@@ -43423,7 +43423,7 @@
         <v>5385</v>
       </c>
       <c r="B5385">
-        <v>645.6988015152946</v>
+        <v>645.6988015152945</v>
       </c>
     </row>
     <row r="5386" spans="1:2">
@@ -43503,7 +43503,7 @@
         <v>5395</v>
       </c>
       <c r="B5395">
-        <v>628.2660569226018</v>
+        <v>628.2660569226017</v>
       </c>
     </row>
     <row r="5396" spans="1:2">
@@ -43519,7 +43519,7 @@
         <v>5397</v>
       </c>
       <c r="B5397">
-        <v>605.3780880162667</v>
+        <v>605.3780880162666</v>
       </c>
     </row>
     <row r="5398" spans="1:2">
@@ -43567,7 +43567,7 @@
         <v>5403</v>
       </c>
       <c r="B5403">
-        <v>383.9289220671356</v>
+        <v>383.9289220671355</v>
       </c>
     </row>
     <row r="5404" spans="1:2">
@@ -43615,7 +43615,7 @@
         <v>5409</v>
       </c>
       <c r="B5409">
-        <v>663.6552640540752</v>
+        <v>663.6552640540751</v>
       </c>
     </row>
     <row r="5410" spans="1:2">
@@ -43711,7 +43711,7 @@
         <v>5421</v>
       </c>
       <c r="B5421">
-        <v>516.9992925265127</v>
+        <v>516.9992925265126</v>
       </c>
     </row>
     <row r="5422" spans="1:2">
@@ -43847,7 +43847,7 @@
         <v>5438</v>
       </c>
       <c r="B5438">
-        <v>461.9300720778913</v>
+        <v>461.9300720778912</v>
       </c>
     </row>
     <row r="5439" spans="1:2">
@@ -43983,7 +43983,7 @@
         <v>5455</v>
       </c>
       <c r="B5455">
-        <v>196.5879497394892</v>
+        <v>196.5879497394891</v>
       </c>
     </row>
     <row r="5456" spans="1:2">
@@ -44007,7 +44007,7 @@
         <v>5458</v>
       </c>
       <c r="B5458">
-        <v>324.7836696128122</v>
+        <v>324.7836696128121</v>
       </c>
     </row>
     <row r="5459" spans="1:2">
@@ -44183,7 +44183,7 @@
         <v>5480</v>
       </c>
       <c r="B5480">
-        <v>337.6538842756252</v>
+        <v>337.6538842756251</v>
       </c>
     </row>
     <row r="5481" spans="1:2">
@@ -44199,7 +44199,7 @@
         <v>5482</v>
       </c>
       <c r="B5482">
-        <v>383.4567846238522</v>
+        <v>383.4567846238521</v>
       </c>
     </row>
     <row r="5483" spans="1:2">
@@ -44247,7 +44247,7 @@
         <v>5488</v>
       </c>
       <c r="B5488">
-        <v>668.6166636675731</v>
+        <v>668.616663667573</v>
       </c>
     </row>
     <row r="5489" spans="1:2">
@@ -44255,7 +44255,7 @@
         <v>5489</v>
       </c>
       <c r="B5489">
-        <v>609.1159160433535</v>
+        <v>609.1159160433534</v>
       </c>
     </row>
     <row r="5490" spans="1:2">
@@ -44279,7 +44279,7 @@
         <v>5492</v>
       </c>
       <c r="B5492">
-        <v>565.9075736003954</v>
+        <v>565.9075736003953</v>
       </c>
     </row>
     <row r="5493" spans="1:2">
@@ -44295,7 +44295,7 @@
         <v>5494</v>
       </c>
       <c r="B5494">
-        <v>502.6511206157306</v>
+        <v>502.6511206157305</v>
       </c>
     </row>
     <row r="5495" spans="1:2">
@@ -44327,7 +44327,7 @@
         <v>5498</v>
       </c>
       <c r="B5498">
-        <v>357.1416429914113</v>
+        <v>357.1416429914112</v>
       </c>
     </row>
     <row r="5499" spans="1:2">
@@ -44415,7 +44415,7 @@
         <v>5509</v>
       </c>
       <c r="B5509">
-        <v>498.4698761071492</v>
+        <v>498.4698761071491</v>
       </c>
     </row>
     <row r="5510" spans="1:2">
@@ -44431,7 +44431,7 @@
         <v>5511</v>
       </c>
       <c r="B5511">
-        <v>521.0504134939285</v>
+        <v>521.0504134939284</v>
       </c>
     </row>
     <row r="5512" spans="1:2">
@@ -44567,7 +44567,7 @@
         <v>5528</v>
       </c>
       <c r="B5528">
-        <v>376.5224307780861</v>
+        <v>376.522430778086</v>
       </c>
     </row>
     <row r="5529" spans="1:2">
@@ -44583,7 +44583,7 @@
         <v>5530</v>
       </c>
       <c r="B5530">
-        <v>472.90528940472</v>
+        <v>472.9052894047199</v>
       </c>
     </row>
     <row r="5531" spans="1:2">
@@ -44719,7 +44719,7 @@
         <v>5547</v>
       </c>
       <c r="B5547">
-        <v>291.6056834680386</v>
+        <v>291.6056834680385</v>
       </c>
     </row>
     <row r="5548" spans="1:2">
@@ -44767,7 +44767,7 @@
         <v>5553</v>
       </c>
       <c r="B5553">
-        <v>548.3816324174082</v>
+        <v>548.3816324174081</v>
       </c>
     </row>
     <row r="5554" spans="1:2">
@@ -44807,7 +44807,7 @@
         <v>5558</v>
       </c>
       <c r="B5558">
-        <v>707.1736756559371</v>
+        <v>707.1736756559369</v>
       </c>
     </row>
     <row r="5559" spans="1:2">
@@ -44831,7 +44831,7 @@
         <v>5561</v>
       </c>
       <c r="B5561">
-        <v>759.8364898061102</v>
+        <v>759.8364898061101</v>
       </c>
     </row>
     <row r="5562" spans="1:2">
@@ -44839,7 +44839,7 @@
         <v>5562</v>
       </c>
       <c r="B5562">
-        <v>675.0876722012156</v>
+        <v>675.0876722012155</v>
       </c>
     </row>
     <row r="5563" spans="1:2">
@@ -44983,7 +44983,7 @@
         <v>5580</v>
       </c>
       <c r="B5580">
-        <v>552.4658704121928</v>
+        <v>552.4658704121927</v>
       </c>
     </row>
     <row r="5581" spans="1:2">
@@ -44999,7 +44999,7 @@
         <v>5582</v>
       </c>
       <c r="B5582">
-        <v>669.4097138981907</v>
+        <v>669.4097138981906</v>
       </c>
     </row>
     <row r="5583" spans="1:2">
@@ -45031,7 +45031,7 @@
         <v>5586</v>
       </c>
       <c r="B5586">
-        <v>469.9435134880085</v>
+        <v>469.9435134880084</v>
       </c>
     </row>
     <row r="5587" spans="1:2">
@@ -45071,7 +45071,7 @@
         <v>5591</v>
       </c>
       <c r="B5591">
-        <v>391.9611200237271</v>
+        <v>391.961120023727</v>
       </c>
     </row>
     <row r="5592" spans="1:2">
@@ -45319,7 +45319,7 @@
         <v>5622</v>
       </c>
       <c r="B5622">
-        <v>57.36417183106683</v>
+        <v>57.36417183106681</v>
       </c>
     </row>
     <row r="5623" spans="1:2">
@@ -45375,7 +45375,7 @@
         <v>5629</v>
       </c>
       <c r="B5629">
-        <v>408.1245739479776</v>
+        <v>408.1245739479775</v>
       </c>
     </row>
     <row r="5630" spans="1:2">
@@ -45575,7 +45575,7 @@
         <v>5654</v>
       </c>
       <c r="B5654">
-        <v>522.3006545448578</v>
+        <v>522.3006545448577</v>
       </c>
     </row>
     <row r="5655" spans="1:2">
@@ -45583,7 +45583,7 @@
         <v>5655</v>
       </c>
       <c r="B5655">
-        <v>529.7036289814434</v>
+        <v>529.7036289814433</v>
       </c>
     </row>
     <row r="5656" spans="1:2">
@@ -45615,7 +45615,7 @@
         <v>5659</v>
       </c>
       <c r="B5659">
-        <v>418.1048150985511</v>
+        <v>418.104815098551</v>
       </c>
     </row>
     <row r="5660" spans="1:2">
@@ -45711,7 +45711,7 @@
         <v>5671</v>
       </c>
       <c r="B5671">
-        <v>167.8728493714506</v>
+        <v>167.8728493714505</v>
       </c>
     </row>
     <row r="5672" spans="1:2">
@@ -45759,7 +45759,7 @@
         <v>5677</v>
       </c>
       <c r="B5677">
-        <v>491.721622370933</v>
+        <v>491.7216223709329</v>
       </c>
     </row>
     <row r="5678" spans="1:2">
@@ -45767,7 +45767,7 @@
         <v>5678</v>
       </c>
       <c r="B5678">
-        <v>537.0409555053689</v>
+        <v>537.0409555053687</v>
       </c>
     </row>
     <row r="5679" spans="1:2">
@@ -45951,7 +45951,7 @@
         <v>5701</v>
       </c>
       <c r="B5701">
-        <v>638.3814038219981</v>
+        <v>638.381403821998</v>
       </c>
     </row>
     <row r="5702" spans="1:2">
@@ -45983,7 +45983,7 @@
         <v>5705</v>
       </c>
       <c r="B5705">
-        <v>681.5279082757987</v>
+        <v>681.5279082757986</v>
       </c>
     </row>
     <row r="5706" spans="1:2">
@@ -46023,7 +46023,7 @@
         <v>5710</v>
       </c>
       <c r="B5710">
-        <v>428.081246325622</v>
+        <v>428.0812463256218</v>
       </c>
     </row>
     <row r="5711" spans="1:2">
@@ -46143,7 +46143,7 @@
         <v>5725</v>
       </c>
       <c r="B5725">
-        <v>606.167914465459</v>
+        <v>606.1679144654589</v>
       </c>
     </row>
     <row r="5726" spans="1:2">
@@ -46327,7 +46327,7 @@
         <v>5748</v>
       </c>
       <c r="B5748">
-        <v>618.2028766680872</v>
+        <v>618.2028766680871</v>
       </c>
     </row>
     <row r="5749" spans="1:2">
@@ -46351,7 +46351,7 @@
         <v>5751</v>
       </c>
       <c r="B5751">
-        <v>676.0492382790635</v>
+        <v>676.0492382790634</v>
       </c>
     </row>
     <row r="5752" spans="1:2">
@@ -46511,7 +46511,7 @@
         <v>5771</v>
       </c>
       <c r="B5771">
-        <v>609.382903759574</v>
+        <v>609.3829037595739</v>
       </c>
     </row>
     <row r="5772" spans="1:2">
@@ -46519,7 +46519,7 @@
         <v>5772</v>
       </c>
       <c r="B5772">
-        <v>613.0588937975033</v>
+        <v>613.0588937975032</v>
       </c>
     </row>
     <row r="5773" spans="1:2">
@@ -46575,7 +46575,7 @@
         <v>5779</v>
       </c>
       <c r="B5779">
-        <v>433.8861043883872</v>
+        <v>433.8861043883871</v>
       </c>
     </row>
     <row r="5780" spans="1:2">
@@ -46655,7 +46655,7 @@
         <v>5789</v>
       </c>
       <c r="B5789">
-        <v>42.99299384374977</v>
+        <v>42.99299384374976</v>
       </c>
     </row>
     <row r="5790" spans="1:2">
@@ -46735,7 +46735,7 @@
         <v>5799</v>
       </c>
       <c r="B5799">
-        <v>608.3489491351768</v>
+        <v>608.3489491351767</v>
       </c>
     </row>
     <row r="5800" spans="1:2">
@@ -46927,7 +46927,7 @@
         <v>5823</v>
       </c>
       <c r="B5823">
-        <v>644.5235866502626</v>
+        <v>644.5235866502625</v>
       </c>
     </row>
     <row r="5824" spans="1:2">
@@ -47143,7 +47143,7 @@
         <v>5850</v>
       </c>
       <c r="B5850">
-        <v>709.8077981514252</v>
+        <v>709.807798151425</v>
       </c>
     </row>
     <row r="5851" spans="1:2">
@@ -47151,7 +47151,7 @@
         <v>5851</v>
       </c>
       <c r="B5851">
-        <v>610.1369755420496</v>
+        <v>610.1369755420495</v>
       </c>
     </row>
     <row r="5852" spans="1:2">
@@ -47303,7 +47303,7 @@
         <v>5870</v>
       </c>
       <c r="B5870">
-        <v>676.2813505416833</v>
+        <v>676.2813505416832</v>
       </c>
     </row>
     <row r="5871" spans="1:2">
@@ -47311,7 +47311,7 @@
         <v>5871</v>
       </c>
       <c r="B5871">
-        <v>708.1352417337849</v>
+        <v>708.1352417337848</v>
       </c>
     </row>
     <row r="5872" spans="1:2">
@@ -47479,7 +47479,7 @@
         <v>5892</v>
       </c>
       <c r="B5892">
-        <v>290.7677933685058</v>
+        <v>290.7677933685057</v>
       </c>
     </row>
     <row r="5893" spans="1:2">
@@ -47527,7 +47527,7 @@
         <v>5898</v>
       </c>
       <c r="B5898">
-        <v>237.557815589152</v>
+        <v>237.5578155891519</v>
       </c>
     </row>
     <row r="5899" spans="1:2">
@@ -47663,7 +47663,7 @@
         <v>5915</v>
       </c>
       <c r="B5915">
-        <v>293.697917613042</v>
+        <v>293.6979176130419</v>
       </c>
     </row>
     <row r="5916" spans="1:2">
@@ -47983,7 +47983,7 @@
         <v>5955</v>
       </c>
       <c r="B5955">
-        <v>35.50529256988719</v>
+        <v>35.50529256988718</v>
       </c>
     </row>
     <row r="5956" spans="1:2">
@@ -48047,7 +48047,7 @@
         <v>5963</v>
       </c>
       <c r="B5963">
-        <v>249.1769099879197</v>
+        <v>249.1769099879196</v>
       </c>
     </row>
     <row r="5964" spans="1:2">
@@ -48199,7 +48199,7 @@
         <v>5982</v>
       </c>
       <c r="B5982">
-        <v>74.08454865008549</v>
+        <v>74.08454865008548</v>
       </c>
     </row>
     <row r="5983" spans="1:2">
@@ -48519,7 +48519,7 @@
         <v>6022</v>
       </c>
       <c r="B6022">
-        <v>365.9548752660353</v>
+        <v>365.9548752660352</v>
       </c>
     </row>
     <row r="6023" spans="1:2">
@@ -48527,7 +48527,7 @@
         <v>6023</v>
       </c>
       <c r="B6023">
-        <v>302.1489140838805</v>
+        <v>302.1489140838804</v>
       </c>
     </row>
     <row r="6024" spans="1:2">
@@ -48599,7 +48599,7 @@
         <v>6032</v>
       </c>
       <c r="B6032">
-        <v>324.7109879952242</v>
+        <v>324.7109879952241</v>
       </c>
     </row>
     <row r="6033" spans="1:2">
@@ -48679,7 +48679,7 @@
         <v>6042</v>
       </c>
       <c r="B6042">
-        <v>362.6809786931494</v>
+        <v>362.6809786931493</v>
       </c>
     </row>
     <row r="6043" spans="1:2">
@@ -48687,7 +48687,7 @@
         <v>6043</v>
       </c>
       <c r="B6043">
-        <v>343.775845202222</v>
+        <v>343.7758452022219</v>
       </c>
     </row>
     <row r="6044" spans="1:2">
@@ -48711,7 +48711,7 @@
         <v>6046</v>
       </c>
       <c r="B6046">
-        <v>285.6129668694914</v>
+        <v>285.6129668694913</v>
       </c>
     </row>
     <row r="6047" spans="1:2">
@@ -48807,7 +48807,7 @@
         <v>6058</v>
       </c>
       <c r="B6058">
-        <v>375.1376701204112</v>
+        <v>375.1376701204111</v>
       </c>
     </row>
     <row r="6059" spans="1:2">
@@ -48839,7 +48839,7 @@
         <v>6062</v>
       </c>
       <c r="B6062">
-        <v>496.6082888695723</v>
+        <v>496.6082888695722</v>
       </c>
     </row>
     <row r="6063" spans="1:2">
@@ -48855,7 +48855,7 @@
         <v>6064</v>
       </c>
       <c r="B6064">
-        <v>465.0876194484286</v>
+        <v>465.0876194484285</v>
       </c>
     </row>
     <row r="6065" spans="1:2">
@@ -48879,7 +48879,7 @@
         <v>6067</v>
       </c>
       <c r="B6067">
-        <v>444.4987928403918</v>
+        <v>444.4987928403917</v>
       </c>
     </row>
     <row r="6068" spans="1:2">
@@ -48887,7 +48887,7 @@
         <v>6068</v>
       </c>
       <c r="B6068">
-        <v>425.1282625400702</v>
+        <v>425.1282625400701</v>
       </c>
     </row>
     <row r="6069" spans="1:2">
@@ -48911,7 +48911,7 @@
         <v>6071</v>
       </c>
       <c r="B6071">
-        <v>385.6867621570264</v>
+        <v>385.6867621570263</v>
       </c>
     </row>
     <row r="6072" spans="1:2">
@@ -48967,7 +48967,7 @@
         <v>6078</v>
       </c>
       <c r="B6078">
-        <v>256.3823545444475</v>
+        <v>256.3823545444474</v>
       </c>
     </row>
     <row r="6079" spans="1:2">
@@ -49023,7 +49023,7 @@
         <v>6085</v>
       </c>
       <c r="B6085">
-        <v>491.6726795074766</v>
+        <v>491.6726795074765</v>
       </c>
     </row>
     <row r="6086" spans="1:2">
@@ -49079,7 +49079,7 @@
         <v>6092</v>
       </c>
       <c r="B6092">
-        <v>362.427765315746</v>
+        <v>362.4277653157459</v>
       </c>
     </row>
     <row r="6093" spans="1:2">
@@ -49143,7 +49143,7 @@
         <v>6100</v>
       </c>
       <c r="B6100">
-        <v>93.81614247003789</v>
+        <v>93.81614247003787</v>
       </c>
     </row>
     <row r="6101" spans="1:2">
@@ -49463,7 +49463,7 @@
         <v>6140</v>
       </c>
       <c r="B6140">
-        <v>330.2599950412381</v>
+        <v>330.259995041238</v>
       </c>
     </row>
     <row r="6141" spans="1:2">
@@ -49583,7 +49583,7 @@
         <v>6155</v>
       </c>
       <c r="B6155">
-        <v>417.0315889549732</v>
+        <v>417.0315889549731</v>
       </c>
     </row>
     <row r="6156" spans="1:2">
@@ -49599,7 +49599,7 @@
         <v>6157</v>
       </c>
       <c r="B6157">
-        <v>493.3165149633281</v>
+        <v>493.316514963328</v>
       </c>
     </row>
     <row r="6158" spans="1:2">
@@ -49623,7 +49623,7 @@
         <v>6160</v>
       </c>
       <c r="B6160">
-        <v>564.7684064731187</v>
+        <v>564.7684064731186</v>
       </c>
     </row>
     <row r="6161" spans="1:2">
@@ -49663,7 +49663,7 @@
         <v>6165</v>
       </c>
       <c r="B6165">
-        <v>345.0527557176695</v>
+        <v>345.0527557176694</v>
       </c>
     </row>
     <row r="6166" spans="1:2">
@@ -50119,7 +50119,7 @@
         <v>6222</v>
       </c>
       <c r="B6222">
-        <v>106.4665538538549</v>
+        <v>106.4665538538548</v>
       </c>
     </row>
     <row r="6223" spans="1:2">
@@ -50191,7 +50191,7 @@
         <v>6231</v>
       </c>
       <c r="B6231">
-        <v>523.2021410597802</v>
+        <v>523.20214105978</v>
       </c>
     </row>
     <row r="6232" spans="1:2">
@@ -50231,7 +50231,7 @@
         <v>6236</v>
       </c>
       <c r="B6236">
-        <v>415.7162861334611</v>
+        <v>415.716286133461</v>
       </c>
     </row>
     <row r="6237" spans="1:2">
@@ -50279,7 +50279,7 @@
         <v>6242</v>
       </c>
       <c r="B6242">
-        <v>270.968207067584</v>
+        <v>270.9682070675839</v>
       </c>
     </row>
     <row r="6243" spans="1:2">
@@ -50303,7 +50303,7 @@
         <v>6245</v>
       </c>
       <c r="B6245">
-        <v>302.0114637667483</v>
+        <v>302.0114637667482</v>
       </c>
     </row>
     <row r="6246" spans="1:2">
@@ -50343,7 +50343,7 @@
         <v>6250</v>
       </c>
       <c r="B6250">
-        <v>458.5266381059171</v>
+        <v>458.526638105917</v>
       </c>
     </row>
     <row r="6251" spans="1:2">
@@ -50391,7 +50391,7 @@
         <v>6256</v>
       </c>
       <c r="B6256">
-        <v>565.2496291186006</v>
+        <v>565.2496291186005</v>
       </c>
     </row>
     <row r="6257" spans="1:2">
@@ -50407,7 +50407,7 @@
         <v>6258</v>
       </c>
       <c r="B6258">
-        <v>380.0779686191255</v>
+        <v>380.0779686191254</v>
       </c>
     </row>
     <row r="6259" spans="1:2">
@@ -50463,7 +50463,7 @@
         <v>6265</v>
       </c>
       <c r="B6265">
-        <v>62.94902146510902</v>
+        <v>62.94902146510901</v>
       </c>
     </row>
     <row r="6266" spans="1:2">
@@ -50495,7 +50495,7 @@
         <v>6269</v>
       </c>
       <c r="B6269">
-        <v>35.75475463799573</v>
+        <v>35.75475463799572</v>
       </c>
     </row>
     <row r="6270" spans="1:2">
@@ -50535,7 +50535,7 @@
         <v>6274</v>
       </c>
       <c r="B6274">
-        <v>458.1764182147168</v>
+        <v>458.1764182147167</v>
       </c>
     </row>
     <row r="6275" spans="1:2">
@@ -50583,7 +50583,7 @@
         <v>6280</v>
       </c>
       <c r="B6280">
-        <v>679.8524211477718</v>
+        <v>679.8524211477717</v>
       </c>
     </row>
     <row r="6281" spans="1:2">
@@ -50719,7 +50719,7 @@
         <v>6297</v>
       </c>
       <c r="B6297">
-        <v>416.5749842767389</v>
+        <v>416.5749842767388</v>
       </c>
     </row>
     <row r="6298" spans="1:2">
@@ -50743,7 +50743,7 @@
         <v>6300</v>
       </c>
       <c r="B6300">
-        <v>584.1752775822343</v>
+        <v>584.1752775822342</v>
       </c>
     </row>
     <row r="6301" spans="1:2">
@@ -50863,7 +50863,7 @@
         <v>6315</v>
       </c>
       <c r="B6315">
-        <v>60.1490500688424</v>
+        <v>60.14905006884239</v>
       </c>
     </row>
     <row r="6316" spans="1:2">
@@ -50943,7 +50943,7 @@
         <v>6325</v>
       </c>
       <c r="B6325">
-        <v>292.5118591195795</v>
+        <v>292.5118591195794</v>
       </c>
     </row>
     <row r="6326" spans="1:2">
@@ -51103,7 +51103,7 @@
         <v>6345</v>
       </c>
       <c r="B6345">
-        <v>200.1262256963515</v>
+        <v>200.1262256963514</v>
       </c>
     </row>
     <row r="6346" spans="1:2">
@@ -51143,7 +51143,7 @@
         <v>6350</v>
       </c>
       <c r="B6350">
-        <v>354.2563586157904</v>
+        <v>354.2563586157903</v>
       </c>
     </row>
     <row r="6351" spans="1:2">
@@ -51519,7 +51519,7 @@
         <v>6397</v>
       </c>
       <c r="B6397">
-        <v>189.2605876308782</v>
+        <v>189.2605876308781</v>
       </c>
     </row>
     <row r="6398" spans="1:2">
@@ -51559,7 +51559,7 @@
         <v>6402</v>
       </c>
       <c r="B6402">
-        <v>134.5890645817203</v>
+        <v>134.5890645817202</v>
       </c>
     </row>
     <row r="6403" spans="1:2">
@@ -51655,7 +51655,7 @@
         <v>6414</v>
       </c>
       <c r="B6414">
-        <v>23.49459664926021</v>
+        <v>23.4945966492602</v>
       </c>
     </row>
     <row r="6415" spans="1:2">
@@ -51807,7 +51807,7 @@
         <v>6433</v>
       </c>
       <c r="B6433">
-        <v>40.4834851539004</v>
+        <v>40.48348515390039</v>
       </c>
     </row>
     <row r="6434" spans="1:2">
@@ -51895,7 +51895,7 @@
         <v>6444</v>
       </c>
       <c r="B6444">
-        <v>348.2103030882068</v>
+        <v>348.2103030882067</v>
       </c>
     </row>
     <row r="6445" spans="1:2">
@@ -52047,7 +52047,7 @@
         <v>6463</v>
       </c>
       <c r="B6463">
-        <v>56.26322116723162</v>
+        <v>56.26322116723161</v>
       </c>
     </row>
     <row r="6464" spans="1:2">
@@ -52111,7 +52111,7 @@
         <v>6471</v>
       </c>
       <c r="B6471">
-        <v>454.422178209465</v>
+        <v>454.4221782094649</v>
       </c>
     </row>
     <row r="6472" spans="1:2">
@@ -52119,7 +52119,7 @@
         <v>6472</v>
       </c>
       <c r="B6472">
-        <v>461.5719392686472</v>
+        <v>461.571939268647</v>
       </c>
     </row>
     <row r="6473" spans="1:2">
@@ -52319,7 +52319,7 @@
         <v>6497</v>
       </c>
       <c r="B6497">
-        <v>227.71736932402</v>
+        <v>227.7173693240199</v>
       </c>
     </row>
     <row r="6498" spans="1:2">
@@ -52407,7 +52407,7 @@
         <v>6508</v>
       </c>
       <c r="B6508">
-        <v>93.90377071059764</v>
+        <v>93.90377071059763</v>
       </c>
     </row>
     <row r="6509" spans="1:2">
@@ -52503,7 +52503,7 @@
         <v>6520</v>
       </c>
       <c r="B6520">
-        <v>385.3878296975918</v>
+        <v>385.3878296975917</v>
       </c>
     </row>
     <row r="6521" spans="1:2">
@@ -52511,7 +52511,7 @@
         <v>6521</v>
       </c>
       <c r="B6521">
-        <v>352.1535739133952</v>
+        <v>352.1535739133951</v>
       </c>
     </row>
     <row r="6522" spans="1:2">
@@ -52575,7 +52575,7 @@
         <v>6529</v>
       </c>
       <c r="B6529">
-        <v>118.7520917945385</v>
+        <v>118.7520917945384</v>
       </c>
     </row>
     <row r="6530" spans="1:2">
@@ -52583,7 +52583,7 @@
         <v>6530</v>
       </c>
       <c r="B6530">
-        <v>96.3128146483939</v>
+        <v>96.31281464839388</v>
       </c>
     </row>
     <row r="6531" spans="1:2">
@@ -52639,7 +52639,7 @@
         <v>6537</v>
       </c>
       <c r="B6537">
-        <v>279.4320986641237</v>
+        <v>279.4320986641236</v>
       </c>
     </row>
     <row r="6538" spans="1:2">
@@ -52687,7 +52687,7 @@
         <v>6543</v>
       </c>
       <c r="B6543">
-        <v>320.6261638583623</v>
+        <v>320.6261638583622</v>
       </c>
     </row>
     <row r="6544" spans="1:2">
@@ -52695,7 +52695,7 @@
         <v>6544</v>
       </c>
       <c r="B6544">
-        <v>285.6698226509917</v>
+        <v>285.6698226509916</v>
       </c>
     </row>
     <row r="6545" spans="1:2">
@@ -52711,7 +52711,7 @@
         <v>6546</v>
       </c>
       <c r="B6546">
-        <v>216.939681877249</v>
+        <v>216.9396818772489</v>
       </c>
     </row>
     <row r="6547" spans="1:2">
@@ -52727,7 +52727,7 @@
         <v>6548</v>
       </c>
       <c r="B6548">
-        <v>207.8749946514536</v>
+        <v>207.8749946514535</v>
       </c>
     </row>
     <row r="6549" spans="1:2">
@@ -52759,7 +52759,7 @@
         <v>6552</v>
       </c>
       <c r="B6552">
-        <v>79.16862780036705</v>
+        <v>79.16862780036703</v>
       </c>
     </row>
     <row r="6553" spans="1:2">
@@ -53071,7 +53071,7 @@
         <v>6591</v>
       </c>
       <c r="B6591">
-        <v>536.7792430678443</v>
+        <v>536.7792430678442</v>
       </c>
     </row>
     <row r="6592" spans="1:2">
@@ -53199,7 +53199,7 @@
         <v>6607</v>
       </c>
       <c r="B6607">
-        <v>93.3164563491203</v>
+        <v>93.31645634912029</v>
       </c>
     </row>
     <row r="6608" spans="1:2">
@@ -53455,7 +53455,7 @@
         <v>6639</v>
       </c>
       <c r="B6639">
-        <v>583.7626335597992</v>
+        <v>583.762633559799</v>
       </c>
     </row>
     <row r="6640" spans="1:2">
@@ -53463,7 +53463,7 @@
         <v>6640</v>
       </c>
       <c r="B6640">
-        <v>582.1873767269944</v>
+        <v>582.1873767269943</v>
       </c>
     </row>
     <row r="6641" spans="1:2">
@@ -53575,7 +53575,7 @@
         <v>6654</v>
       </c>
       <c r="B6654">
-        <v>39.31111307794342</v>
+        <v>39.31111307794341</v>
       </c>
     </row>
     <row r="6655" spans="1:2">
@@ -53631,7 +53631,7 @@
         <v>6661</v>
       </c>
       <c r="B6661">
-        <v>500.7704837606408</v>
+        <v>500.7704837606407</v>
       </c>
     </row>
     <row r="6662" spans="1:2">
@@ -53687,7 +53687,7 @@
         <v>6668</v>
       </c>
       <c r="B6668">
-        <v>330.8496539710247</v>
+        <v>330.8496539710246</v>
       </c>
     </row>
     <row r="6669" spans="1:2">
@@ -53695,7 +53695,7 @@
         <v>6669</v>
       </c>
       <c r="B6669">
-        <v>325.5465335264477</v>
+        <v>325.5465335264476</v>
       </c>
     </row>
     <row r="6670" spans="1:2">
@@ -53743,7 +53743,7 @@
         <v>6675</v>
       </c>
       <c r="B6675">
-        <v>210.9677733224468</v>
+        <v>210.9677733224467</v>
       </c>
     </row>
     <row r="6676" spans="1:2">
@@ -53815,7 +53815,7 @@
         <v>6684</v>
       </c>
       <c r="B6684">
-        <v>177.9770595713778</v>
+        <v>177.9770595713777</v>
       </c>
     </row>
     <row r="6685" spans="1:2">
@@ -53879,7 +53879,7 @@
         <v>6692</v>
       </c>
       <c r="B6692">
-        <v>96.48455427704944</v>
+        <v>96.48455427704943</v>
       </c>
     </row>
     <row r="6693" spans="1:2">
@@ -54167,7 +54167,7 @@
         <v>6728</v>
       </c>
       <c r="B6728">
-        <v>37.85452070869267</v>
+        <v>37.85452070869266</v>
       </c>
     </row>
     <row r="6729" spans="1:2">
@@ -54223,7 +54223,7 @@
         <v>6735</v>
       </c>
       <c r="B6735">
-        <v>202.1410597800444</v>
+        <v>202.1410597800443</v>
       </c>
     </row>
     <row r="6736" spans="1:2">
@@ -54359,7 +54359,7 @@
         <v>6752</v>
       </c>
       <c r="B6752">
-        <v>47.72286733670522</v>
+        <v>47.72286733670521</v>
       </c>
     </row>
     <row r="6753" spans="1:2">
@@ -54623,7 +54623,7 @@
         <v>6785</v>
       </c>
       <c r="B6785">
-        <v>331.7048352618385</v>
+        <v>331.7048352618384</v>
       </c>
     </row>
     <row r="6786" spans="1:2">
@@ -54783,7 +54783,7 @@
         <v>6805</v>
       </c>
       <c r="B6805">
-        <v>452.4503962613514</v>
+        <v>452.4503962613513</v>
       </c>
     </row>
     <row r="6806" spans="1:2">
@@ -54823,7 +54823,7 @@
         <v>6810</v>
       </c>
       <c r="B6810">
-        <v>279.4792831013481</v>
+        <v>279.479283101348</v>
       </c>
     </row>
     <row r="6811" spans="1:2">
@@ -54839,7 +54839,7 @@
         <v>6812</v>
       </c>
       <c r="B6812">
-        <v>274.5580342201468</v>
+        <v>274.5580342201467</v>
       </c>
     </row>
     <row r="6813" spans="1:2">
@@ -54959,7 +54959,7 @@
         <v>6827</v>
       </c>
       <c r="B6827">
-        <v>443.0706576689951</v>
+        <v>443.070657668995</v>
       </c>
     </row>
     <row r="6828" spans="1:2">
@@ -55159,7 +55159,7 @@
         <v>6852</v>
       </c>
       <c r="B6852">
-        <v>481.3624403673705</v>
+        <v>481.3624403673704</v>
       </c>
     </row>
     <row r="6853" spans="1:2">
@@ -55191,7 +55191,7 @@
         <v>6856</v>
       </c>
       <c r="B6856">
-        <v>438.8560030620063</v>
+        <v>438.8560030620062</v>
       </c>
     </row>
     <row r="6857" spans="1:2">
@@ -55207,7 +55207,7 @@
         <v>6858</v>
       </c>
       <c r="B6858">
-        <v>321.3884416299205</v>
+        <v>321.3884416299204</v>
       </c>
     </row>
     <row r="6859" spans="1:2">
@@ -55375,7 +55375,7 @@
         <v>6879</v>
       </c>
       <c r="B6879">
-        <v>410.9996008372454</v>
+        <v>410.9996008372453</v>
       </c>
     </row>
     <row r="6880" spans="1:2">
@@ -55415,7 +55415,7 @@
         <v>6884</v>
       </c>
       <c r="B6884">
-        <v>316.2617499506176</v>
+        <v>316.2617499506175</v>
       </c>
     </row>
     <row r="6885" spans="1:2">
@@ -55447,7 +55447,7 @@
         <v>6888</v>
       </c>
       <c r="B6888">
-        <v>91.06435195252719</v>
+        <v>91.06435195252718</v>
       </c>
     </row>
     <row r="6889" spans="1:2">
@@ -55543,7 +55543,7 @@
         <v>6900</v>
       </c>
       <c r="B6900">
-        <v>305.8547973677532</v>
+        <v>305.8547973677531</v>
       </c>
     </row>
     <row r="6901" spans="1:2">
@@ -55687,7 +55687,7 @@
         <v>6918</v>
       </c>
       <c r="B6918">
-        <v>23.6180088636405</v>
+        <v>23.61800886364049</v>
       </c>
     </row>
     <row r="6919" spans="1:2">
@@ -55759,7 +55759,7 @@
         <v>6927</v>
       </c>
       <c r="B6927">
-        <v>361.199797663755</v>
+        <v>361.1997976637549</v>
       </c>
     </row>
     <row r="6928" spans="1:2">
@@ -55855,7 +55855,7 @@
         <v>6939</v>
       </c>
       <c r="B6939">
-        <v>8.872491238641301</v>
+        <v>8.872491238641299</v>
       </c>
     </row>
     <row r="6940" spans="1:2">
@@ -55935,7 +55935,7 @@
         <v>6949</v>
       </c>
       <c r="B6949">
-        <v>227.6514283403212</v>
+        <v>227.6514283403211</v>
       </c>
     </row>
     <row r="6950" spans="1:2">
@@ -55999,7 +55999,7 @@
         <v>6957</v>
       </c>
       <c r="B6957">
-        <v>69.53028332349592</v>
+        <v>69.53028332349591</v>
       </c>
     </row>
     <row r="6958" spans="1:2">
@@ -56143,7 +56143,7 @@
         <v>6975</v>
       </c>
       <c r="B6975">
-        <v>299.7325433701177</v>
+        <v>299.7325433701176</v>
       </c>
     </row>
     <row r="6976" spans="1:2">
@@ -56167,7 +56167,7 @@
         <v>6978</v>
       </c>
       <c r="B6978">
-        <v>100.4123216442927</v>
+        <v>100.4123216442926</v>
       </c>
     </row>
     <row r="6979" spans="1:2">
@@ -56247,7 +56247,7 @@
         <v>6988</v>
       </c>
       <c r="B6988">
-        <v>2.182684659665396</v>
+        <v>2.182684659665395</v>
       </c>
     </row>
     <row r="6989" spans="1:2">
@@ -56255,7 +56255,7 @@
         <v>6989</v>
       </c>
       <c r="B6989">
-        <v>2.506325938369506</v>
+        <v>2.506325938369505</v>
       </c>
     </row>
     <row r="6990" spans="1:2">
@@ -56279,7 +56279,7 @@
         <v>6992</v>
       </c>
       <c r="B6992">
-        <v>48.90669849027386</v>
+        <v>48.90669849027385</v>
       </c>
     </row>
     <row r="6993" spans="1:2">
@@ -56431,7 +56431,7 @@
         <v>7011</v>
       </c>
       <c r="B7011">
-        <v>13.58876623540287</v>
+        <v>13.58876623540286</v>
       </c>
     </row>
     <row r="7012" spans="1:2">
@@ -56463,7 +56463,7 @@
         <v>7015</v>
       </c>
       <c r="B7015">
-        <v>8.271256002827551</v>
+        <v>8.271256002827549</v>
       </c>
     </row>
     <row r="7016" spans="1:2">
@@ -56887,7 +56887,7 @@
         <v>7068</v>
       </c>
       <c r="B7068">
-        <v>429.3396933656337</v>
+        <v>429.3396933656336</v>
       </c>
     </row>
     <row r="7069" spans="1:2">
@@ -56911,7 +56911,7 @@
         <v>7071</v>
       </c>
       <c r="B7071">
-        <v>532.9452877400765</v>
+        <v>532.9452877400764</v>
       </c>
     </row>
     <row r="7072" spans="1:2">
@@ -57103,7 +57103,7 @@
         <v>7095</v>
       </c>
       <c r="B7095">
-        <v>427.0267767285184</v>
+        <v>427.0267767285183</v>
       </c>
     </row>
     <row r="7096" spans="1:2">
@@ -57127,7 +57127,7 @@
         <v>7098</v>
       </c>
       <c r="B7098">
-        <v>355.8401145087163</v>
+        <v>355.8401145087162</v>
       </c>
     </row>
     <row r="7099" spans="1:2">
@@ -57415,7 +57415,7 @@
         <v>7134</v>
       </c>
       <c r="B7134">
-        <v>286.6208381714478</v>
+        <v>286.6208381714477</v>
       </c>
     </row>
     <row r="7135" spans="1:2">
@@ -57431,7 +57431,7 @@
         <v>7136</v>
       </c>
       <c r="B7136">
-        <v>350.6759097364647</v>
+        <v>350.6759097364646</v>
       </c>
     </row>
     <row r="7137" spans="1:2">
@@ -57455,7 +57455,7 @@
         <v>7139</v>
       </c>
       <c r="B7139">
-        <v>443.6779008611014</v>
+        <v>443.6779008611013</v>
       </c>
     </row>
     <row r="7140" spans="1:2">
@@ -57479,7 +57479,7 @@
         <v>7142</v>
       </c>
       <c r="B7142">
-        <v>481.6109646081553</v>
+        <v>481.6109646081552</v>
       </c>
     </row>
     <row r="7143" spans="1:2">
@@ -57551,7 +57551,7 @@
         <v>7151</v>
       </c>
       <c r="B7151">
-        <v>68.74746127212761</v>
+        <v>68.74746127212759</v>
       </c>
     </row>
     <row r="7152" spans="1:2">
@@ -57895,7 +57895,7 @@
         <v>7194</v>
       </c>
       <c r="B7194">
-        <v>36.31255674587987</v>
+        <v>36.31255674587986</v>
       </c>
     </row>
     <row r="7195" spans="1:2">
@@ -58103,7 +58103,7 @@
         <v>7220</v>
       </c>
       <c r="B7220">
-        <v>12.99582197927285</v>
+        <v>12.99582197927284</v>
       </c>
     </row>
     <row r="7221" spans="1:2">
@@ -58343,7 +58343,7 @@
         <v>7250</v>
       </c>
       <c r="B7250">
-        <v>4.524225545126786</v>
+        <v>4.524225545126785</v>
       </c>
     </row>
     <row r="7251" spans="1:2">
@@ -58495,7 +58495,7 @@
         <v>7269</v>
       </c>
       <c r="B7269">
-        <v>63.28520325355745</v>
+        <v>63.28520325355744</v>
       </c>
     </row>
     <row r="7270" spans="1:2">
@@ -58503,7 +58503,7 @@
         <v>7270</v>
       </c>
       <c r="B7270">
-        <v>37.70068772049933</v>
+        <v>37.70068772049932</v>
       </c>
     </row>
     <row r="7271" spans="1:2">
@@ -58623,7 +58623,7 @@
         <v>7285</v>
       </c>
       <c r="B7285">
-        <v>239.4654149797987</v>
+        <v>239.4654149797986</v>
       </c>
     </row>
     <row r="7286" spans="1:2">
@@ -58727,7 +58727,7 @@
         <v>7298</v>
       </c>
       <c r="B7298">
-        <v>7.434831258488071</v>
+        <v>7.43483125848807</v>
       </c>
     </row>
     <row r="7299" spans="1:2">
@@ -58815,7 +58815,7 @@
         <v>7309</v>
       </c>
       <c r="B7309">
-        <v>212.2549413242474</v>
+        <v>212.2549413242473</v>
       </c>
     </row>
     <row r="7310" spans="1:2">
@@ -58847,7 +58847,7 @@
         <v>7313</v>
       </c>
       <c r="B7313">
-        <v>158.9338896212409</v>
+        <v>158.9338896212408</v>
       </c>
     </row>
     <row r="7314" spans="1:2">
@@ -58863,7 +58863,7 @@
         <v>7315</v>
       </c>
       <c r="B7315">
-        <v>93.96449502980826</v>
+        <v>93.96449502980825</v>
       </c>
     </row>
     <row r="7316" spans="1:2">
@@ -58871,7 +58871,7 @@
         <v>7316</v>
       </c>
       <c r="B7316">
-        <v>94.07788421466634</v>
+        <v>94.07788421466633</v>
       </c>
     </row>
     <row r="7317" spans="1:2">
@@ -58919,7 +58919,7 @@
         <v>7322</v>
       </c>
       <c r="B7322">
-        <v>4.526687341851542</v>
+        <v>4.526687341851541</v>
       </c>
     </row>
     <row r="7323" spans="1:2">
@@ -59087,7 +59087,7 @@
         <v>7343</v>
       </c>
       <c r="B7343">
-        <v>17.21756890539726</v>
+        <v>17.21756890539725</v>
       </c>
     </row>
     <row r="7344" spans="1:2">
@@ -59135,7 +59135,7 @@
         <v>7349</v>
       </c>
       <c r="B7349">
-        <v>1.455056677008167</v>
+        <v>1.455056677008166</v>
       </c>
     </row>
     <row r="7350" spans="1:2">
@@ -59255,7 +59255,7 @@
         <v>7364</v>
       </c>
       <c r="B7364">
-        <v>84.84983919192109</v>
+        <v>84.84983919192108</v>
       </c>
     </row>
     <row r="7365" spans="1:2">
@@ -59263,7 +59263,7 @@
         <v>7365</v>
       </c>
       <c r="B7365">
-        <v>75.74042932562597</v>
+        <v>75.74042932562595</v>
       </c>
     </row>
     <row r="7366" spans="1:2">
@@ -59351,7 +59351,7 @@
         <v>7376</v>
       </c>
       <c r="B7376">
-        <v>24.8625350293159</v>
+        <v>24.86253502931589</v>
       </c>
     </row>
     <row r="7377" spans="1:2">
@@ -59431,7 +59431,7 @@
         <v>7386</v>
       </c>
       <c r="B7386">
-        <v>29.56641312114209</v>
+        <v>29.56641312114208</v>
       </c>
     </row>
     <row r="7387" spans="1:2">
@@ -59463,7 +59463,7 @@
         <v>7390</v>
       </c>
       <c r="B7390">
-        <v>60.9256590141911</v>
+        <v>60.92565901419108</v>
       </c>
     </row>
     <row r="7391" spans="1:2">
@@ -59919,7 +59919,7 @@
         <v>7447</v>
       </c>
       <c r="B7447">
-        <v>15.69073033888977</v>
+        <v>15.69073033888976</v>
       </c>
     </row>
     <row r="7448" spans="1:2">
@@ -60023,7 +60023,7 @@
         <v>7460</v>
       </c>
       <c r="B7460">
-        <v>43.46665525643424</v>
+        <v>43.46665525643423</v>
       </c>
     </row>
     <row r="7461" spans="1:2">
@@ -60071,7 +60071,7 @@
         <v>7466</v>
       </c>
       <c r="B7466">
-        <v>9.823242995162571</v>
+        <v>9.82324299516257</v>
       </c>
     </row>
     <row r="7467" spans="1:2">
@@ -60135,7 +60135,7 @@
         <v>7474</v>
       </c>
       <c r="B7474">
-        <v>43.0810616908675</v>
+        <v>43.08106169086749</v>
       </c>
     </row>
     <row r="7475" spans="1:2">
@@ -60207,7 +60207,7 @@
         <v>7483</v>
       </c>
       <c r="B7483">
-        <v>76.00299166916267</v>
+        <v>76.00299166916265</v>
       </c>
     </row>
     <row r="7484" spans="1:2">
@@ -60679,7 +60679,7 @@
         <v>7542</v>
       </c>
       <c r="B7542">
-        <v>3.541177360145036</v>
+        <v>3.541177360145035</v>
       </c>
     </row>
     <row r="7543" spans="1:2">
@@ -61175,7 +61175,7 @@
         <v>7604</v>
       </c>
       <c r="B7604">
-        <v>29.81353062094134</v>
+        <v>29.81353062094133</v>
       </c>
     </row>
     <row r="7605" spans="1:2">
@@ -61311,7 +61311,7 @@
         <v>7621</v>
       </c>
       <c r="B7621">
-        <v>23.39316476277952</v>
+        <v>23.39316476277951</v>
       </c>
     </row>
     <row r="7622" spans="1:2">
@@ -61335,7 +61335,7 @@
         <v>7624</v>
       </c>
       <c r="B7624">
-        <v>92.23191766345013</v>
+        <v>92.2319176634501</v>
       </c>
     </row>
     <row r="7625" spans="1:2">
@@ -61479,7 +61479,7 @@
         <v>7642</v>
       </c>
       <c r="B7642">
-        <v>70.41022911707661</v>
+        <v>70.4102291170766</v>
       </c>
     </row>
     <row r="7643" spans="1:2">
@@ -61487,7 +61487,7 @@
         <v>7643</v>
       </c>
       <c r="B7643">
-        <v>76.84410555012073</v>
+        <v>76.84410555012072</v>
       </c>
     </row>
     <row r="7644" spans="1:2">
@@ -61567,7 +61567,7 @@
         <v>7653</v>
       </c>
       <c r="B7653">
-        <v>5.862848029185187</v>
+        <v>5.862848029185186</v>
       </c>
     </row>
     <row r="7654" spans="1:2">
@@ -61711,7 +61711,7 @@
         <v>7671</v>
       </c>
       <c r="B7671">
-        <v>59.63787556320928</v>
+        <v>59.63787556320926</v>
       </c>
     </row>
     <row r="7672" spans="1:2">
@@ -61759,7 +61759,7 @@
         <v>7677</v>
       </c>
       <c r="B7677">
-        <v>31.21537732017015</v>
+        <v>31.21537732017014</v>
       </c>
     </row>
     <row r="7678" spans="1:2">
@@ -61791,7 +61791,7 @@
         <v>7681</v>
       </c>
       <c r="B7681">
-        <v>5.49352869839532</v>
+        <v>5.493528698395319</v>
       </c>
     </row>
     <row r="7682" spans="1:2">
@@ -61807,7 +61807,7 @@
         <v>7683</v>
       </c>
       <c r="B7683">
-        <v>3.031966430470948</v>
+        <v>3.031966430470947</v>
       </c>
     </row>
     <row r="7684" spans="1:2">
@@ -61927,7 +61927,7 @@
         <v>7698</v>
       </c>
       <c r="B7698">
-        <v>0.8190837309818877</v>
+        <v>0.8190837309818876</v>
       </c>
     </row>
     <row r="7699" spans="1:2">
@@ -62639,7 +62639,7 @@
         <v>7787</v>
       </c>
       <c r="B7787">
-        <v>10.96311349293201</v>
+        <v>10.963113492932</v>
       </c>
     </row>
     <row r="7788" spans="1:2">
@@ -62823,7 +62823,7 @@
         <v>7810</v>
       </c>
       <c r="B7810">
-        <v>33.29667991543143</v>
+        <v>33.29667991543142</v>
       </c>
     </row>
     <row r="7811" spans="1:2">
@@ -62839,7 +62839,7 @@
         <v>7812</v>
       </c>
       <c r="B7812">
-        <v>59.98050491450825</v>
+        <v>59.98050491450824</v>
       </c>
     </row>
     <row r="7813" spans="1:2">
@@ -63023,7 +63023,7 @@
         <v>7835</v>
       </c>
       <c r="B7835">
-        <v>61.03515035423497</v>
+        <v>61.03515035423496</v>
       </c>
     </row>
     <row r="7836" spans="1:2">
@@ -63071,7 +63071,7 @@
         <v>7841</v>
       </c>
       <c r="B7841">
-        <v>8.740609271243695</v>
+        <v>8.740609271243693</v>
       </c>
     </row>
     <row r="7842" spans="1:2">
@@ -63255,7 +63255,7 @@
         <v>7864</v>
       </c>
       <c r="B7864">
-        <v>69.11816682893034</v>
+        <v>69.11816682893033</v>
       </c>
     </row>
     <row r="7865" spans="1:2">
@@ -63687,7 +63687,7 @@
         <v>7918</v>
       </c>
       <c r="B7918">
-        <v>11.04121692473526</v>
+        <v>11.04121692473525</v>
       </c>
     </row>
     <row r="7919" spans="1:2">
@@ -63799,7 +63799,7 @@
         <v>7932</v>
       </c>
       <c r="B7932">
-        <v>147.8871629609788</v>
+        <v>147.8871629609787</v>
       </c>
     </row>
     <row r="7933" spans="1:2">
@@ -63807,7 +63807,7 @@
         <v>7933</v>
       </c>
       <c r="B7933">
-        <v>115.3940838335568</v>
+        <v>115.3940838335567</v>
       </c>
     </row>
     <row r="7934" spans="1:2">
@@ -63823,7 +63823,7 @@
         <v>7935</v>
       </c>
       <c r="B7935">
-        <v>129.3627287492725</v>
+        <v>129.3627287492724</v>
       </c>
     </row>
     <row r="7936" spans="1:2">
@@ -63847,7 +63847,7 @@
         <v>7938</v>
       </c>
       <c r="B7938">
-        <v>23.75249037115103</v>
+        <v>23.75249037115102</v>
       </c>
     </row>
     <row r="7939" spans="1:2">
@@ -63967,7 +63967,7 @@
         <v>7953</v>
       </c>
       <c r="B7953">
-        <v>36.93416041888058</v>
+        <v>36.93416041888057</v>
       </c>
     </row>
     <row r="7954" spans="1:2">
@@ -64175,7 +64175,7 @@
         <v>7979</v>
       </c>
       <c r="B7979">
-        <v>107.2503430396508</v>
+        <v>107.2503430396507</v>
       </c>
     </row>
     <row r="7980" spans="1:2">
@@ -64255,7 +64255,7 @@
         <v>7989</v>
       </c>
       <c r="B7989">
-        <v>8.652840356585395</v>
+        <v>8.652840356585394</v>
       </c>
     </row>
     <row r="7990" spans="1:2">
@@ -64367,7 +64367,7 @@
         <v>8003</v>
       </c>
       <c r="B8003">
-        <v>79.84597358492115</v>
+        <v>79.84597358492114</v>
       </c>
     </row>
     <row r="8004" spans="1:2">
@@ -64471,7 +64471,7 @@
         <v>8016</v>
       </c>
       <c r="B8016">
-        <v>5.883404031836894</v>
+        <v>5.883404031836893</v>
       </c>
     </row>
     <row r="8017" spans="1:2">
@@ -64503,7 +64503,7 @@
         <v>8020</v>
       </c>
       <c r="B8020">
-        <v>15.18122633817702</v>
+        <v>15.18122633817701</v>
       </c>
     </row>
     <row r="8021" spans="1:2">
@@ -64551,7 +64551,7 @@
         <v>8026</v>
       </c>
       <c r="B8026">
-        <v>224.621923706575</v>
+        <v>224.6219237065749</v>
       </c>
     </row>
     <row r="8027" spans="1:2">
@@ -64799,7 +64799,7 @@
         <v>8057</v>
       </c>
       <c r="B8057">
-        <v>85.31980790951843</v>
+        <v>85.31980790951842</v>
       </c>
     </row>
     <row r="8058" spans="1:2">
@@ -64831,7 +64831,7 @@
         <v>8061</v>
       </c>
       <c r="B8061">
-        <v>9.813044123017157</v>
+        <v>9.813044123017155</v>
       </c>
     </row>
     <row r="8062" spans="1:2">
@@ -64943,7 +64943,7 @@
         <v>8075</v>
       </c>
       <c r="B8075">
-        <v>179.3940580433054</v>
+        <v>179.3940580433053</v>
       </c>
     </row>
     <row r="8076" spans="1:2">
@@ -65151,7 +65151,7 @@
         <v>8101</v>
       </c>
       <c r="B8101">
-        <v>163.3618999443752</v>
+        <v>163.3618999443751</v>
       </c>
     </row>
     <row r="8102" spans="1:2">
@@ -65167,7 +65167,7 @@
         <v>8103</v>
       </c>
       <c r="B8103">
-        <v>328.9857221651386</v>
+        <v>328.9857221651385</v>
       </c>
     </row>
     <row r="8104" spans="1:2">
@@ -65215,7 +65215,7 @@
         <v>8109</v>
       </c>
       <c r="B8109">
-        <v>213.3589399268847</v>
+        <v>213.3589399268846</v>
       </c>
     </row>
     <row r="8110" spans="1:2">
@@ -65231,7 +65231,7 @@
         <v>8111</v>
       </c>
       <c r="B8111">
-        <v>108.4500586435149</v>
+        <v>108.4500586435148</v>
       </c>
     </row>
     <row r="8112" spans="1:2">
@@ -65295,7 +65295,7 @@
         <v>8119</v>
       </c>
       <c r="B8119">
-        <v>52.16614666095374</v>
+        <v>52.16614666095373</v>
       </c>
     </row>
     <row r="8120" spans="1:2">
@@ -65359,7 +65359,7 @@
         <v>8127</v>
       </c>
       <c r="B8127">
-        <v>363.4303613390065</v>
+        <v>363.4303613390064</v>
       </c>
     </row>
     <row r="8128" spans="1:2">
@@ -65423,7 +65423,7 @@
         <v>8135</v>
       </c>
       <c r="B8135">
-        <v>161.424407307785</v>
+        <v>161.4244073077849</v>
       </c>
     </row>
     <row r="8136" spans="1:2">
@@ -65431,7 +65431,7 @@
         <v>8136</v>
       </c>
       <c r="B8136">
-        <v>95.25482819882643</v>
+        <v>95.25482819882642</v>
       </c>
     </row>
     <row r="8137" spans="1:2">
@@ -65607,7 +65607,7 @@
         <v>8158</v>
       </c>
       <c r="B8158">
-        <v>246.4586761043357</v>
+        <v>246.4586761043356</v>
       </c>
     </row>
     <row r="8159" spans="1:2">
@@ -65695,7 +65695,7 @@
         <v>8169</v>
       </c>
       <c r="B8169">
-        <v>284.5614279827745</v>
+        <v>284.5614279827744</v>
       </c>
     </row>
     <row r="8170" spans="1:2">
@@ -65743,7 +65743,7 @@
         <v>8175</v>
       </c>
       <c r="B8175">
-        <v>353.1693581333954</v>
+        <v>353.1693581333953</v>
       </c>
     </row>
     <row r="8176" spans="1:2">
@@ -65823,7 +65823,7 @@
         <v>8185</v>
       </c>
       <c r="B8185">
-        <v>97.76146479249692</v>
+        <v>97.76146479249689</v>
       </c>
     </row>
     <row r="8186" spans="1:2">
@@ -65831,7 +65831,7 @@
         <v>8186</v>
       </c>
       <c r="B8186">
-        <v>77.52022043631246</v>
+        <v>77.52022043631243</v>
       </c>
     </row>
     <row r="8187" spans="1:2">
@@ -65951,7 +65951,7 @@
         <v>8201</v>
       </c>
       <c r="B8201">
-        <v>9.819433071659974</v>
+        <v>9.819433071659972</v>
       </c>
     </row>
     <row r="8202" spans="1:2">
@@ -65975,7 +65975,7 @@
         <v>8204</v>
       </c>
       <c r="B8204">
-        <v>24.23917293008322</v>
+        <v>24.23917293008321</v>
       </c>
     </row>
     <row r="8205" spans="1:2">
@@ -65991,7 +65991,7 @@
         <v>8206</v>
       </c>
       <c r="B8206">
-        <v>33.83950609323997</v>
+        <v>33.83950609323996</v>
       </c>
     </row>
     <row r="8207" spans="1:2">
@@ -66023,7 +66023,7 @@
         <v>8210</v>
       </c>
       <c r="B8210">
-        <v>3.885028817675232</v>
+        <v>3.885028817675231</v>
       </c>
     </row>
     <row r="8211" spans="1:2">
@@ -66479,7 +66479,7 @@
         <v>8267</v>
       </c>
       <c r="B8267">
-        <v>128.0045789419081</v>
+        <v>128.004578941908</v>
       </c>
     </row>
     <row r="8268" spans="1:2">
@@ -66495,7 +66495,7 @@
         <v>8269</v>
       </c>
       <c r="B8269">
-        <v>140.6682957508803</v>
+        <v>140.6682957508802</v>
       </c>
     </row>
     <row r="8270" spans="1:2">
@@ -66775,7 +66775,7 @@
         <v>8304</v>
       </c>
       <c r="B8304">
-        <v>0.7740562966019586</v>
+        <v>0.7740562966019585</v>
       </c>
     </row>
     <row r="8305" spans="1:2">
@@ -66967,7 +66967,7 @@
         <v>8328</v>
       </c>
       <c r="B8328">
-        <v>3.326737281156529</v>
+        <v>3.326737281156528</v>
       </c>
     </row>
     <row r="8329" spans="1:2">
@@ -67111,7 +67111,7 @@
         <v>8346</v>
       </c>
       <c r="B8346">
-        <v>12.49484927649553</v>
+        <v>12.49484927649552</v>
       </c>
     </row>
     <row r="8347" spans="1:2">
@@ -67447,7 +67447,7 @@
         <v>8388</v>
       </c>
       <c r="B8388">
-        <v>72.60712186069631</v>
+        <v>72.6071218606963</v>
       </c>
     </row>
     <row r="8389" spans="1:2">
@@ -67991,7 +67991,7 @@
         <v>8456</v>
       </c>
       <c r="B8456">
-        <v>13.96278349494248</v>
+        <v>13.96278349494247</v>
       </c>
     </row>
     <row r="8457" spans="1:2">
@@ -68399,7 +68399,7 @@
         <v>8507</v>
       </c>
       <c r="B8507">
-        <v>22.04711878931182</v>
+        <v>22.04711878931181</v>
       </c>
     </row>
     <row r="8508" spans="1:2">
@@ -68463,7 +68463,7 @@
         <v>8515</v>
       </c>
       <c r="B8515">
-        <v>28.74027517025963</v>
+        <v>28.74027517025962</v>
       </c>
     </row>
     <row r="8516" spans="1:2">
@@ -68479,7 +68479,7 @@
         <v>8517</v>
       </c>
       <c r="B8517">
-        <v>74.39605385707864</v>
+        <v>74.39605385707863</v>
       </c>
     </row>
     <row r="8518" spans="1:2">
@@ -68495,7 +68495,7 @@
         <v>8519</v>
       </c>
       <c r="B8519">
-        <v>75.52513934062534</v>
+        <v>75.52513934062533</v>
       </c>
     </row>
     <row r="8520" spans="1:2">
@@ -68567,7 +68567,7 @@
         <v>8528</v>
       </c>
       <c r="B8528">
-        <v>24.52734968239892</v>
+        <v>24.52734968239891</v>
       </c>
     </row>
     <row r="8529" spans="1:2">
@@ -68799,7 +68799,7 @@
         <v>8557</v>
       </c>
       <c r="B8557">
-        <v>7.18941357071306</v>
+        <v>7.189413570713059</v>
       </c>
     </row>
     <row r="8558" spans="1:2">
@@ -68807,7 +68807,7 @@
         <v>8558</v>
       </c>
       <c r="B8558">
-        <v>0.0790482928318927</v>
+        <v>0.0790482928318926</v>
       </c>
     </row>
     <row r="8559" spans="1:2">
@@ -68991,7 +68991,7 @@
         <v>8581</v>
       </c>
       <c r="B8581">
-        <v>4.528269925460313</v>
+        <v>4.528269925460312</v>
       </c>
     </row>
     <row r="8582" spans="1:2">
@@ -68999,7 +68999,7 @@
         <v>8582</v>
       </c>
       <c r="B8582">
-        <v>6.140453709136373</v>
+        <v>6.140453709136372</v>
       </c>
     </row>
     <row r="8583" spans="1:2">
@@ -69007,7 +69007,7 @@
         <v>8583</v>
       </c>
       <c r="B8583">
-        <v>6.511393722770038</v>
+        <v>6.511393722770037</v>
       </c>
     </row>
     <row r="8584" spans="1:2">
@@ -69015,7 +69015,7 @@
         <v>8584</v>
       </c>
       <c r="B8584">
-        <v>6.744736883752201</v>
+        <v>6.7447368837522</v>
       </c>
     </row>
     <row r="8585" spans="1:2">
@@ -69191,7 +69191,7 @@
         <v>8606</v>
       </c>
       <c r="B8606">
-        <v>94.86973285402544</v>
+        <v>94.8697328540254</v>
       </c>
     </row>
     <row r="8607" spans="1:2">
@@ -69199,7 +69199,7 @@
         <v>8607</v>
       </c>
       <c r="B8607">
-        <v>82.62317336148379</v>
+        <v>82.62317336148378</v>
       </c>
     </row>
     <row r="8608" spans="1:2">
@@ -69383,7 +69383,7 @@
         <v>8630</v>
       </c>
       <c r="B8630">
-        <v>8.943179973166417</v>
+        <v>8.943179973166416</v>
       </c>
     </row>
     <row r="8631" spans="1:2">
@@ -69399,7 +69399,7 @@
         <v>8632</v>
       </c>
       <c r="B8632">
-        <v>8.156108391737508</v>
+        <v>8.156108391737506</v>
       </c>
     </row>
     <row r="8633" spans="1:2">
@@ -69527,7 +69527,7 @@
         <v>8648</v>
       </c>
       <c r="B8648">
-        <v>6.519277333710028</v>
+        <v>6.519277333710027</v>
       </c>
     </row>
     <row r="8649" spans="1:2">
@@ -69583,7 +69583,7 @@
         <v>8655</v>
       </c>
       <c r="B8655">
-        <v>24.4661857566303</v>
+        <v>24.46618575663029</v>
       </c>
     </row>
     <row r="8656" spans="1:2">
@@ -69783,7 +69783,7 @@
         <v>8680</v>
       </c>
       <c r="B8680">
-        <v>16.89047524985772</v>
+        <v>16.89047524985771</v>
       </c>
     </row>
     <row r="8681" spans="1:2">
@@ -69791,7 +69791,7 @@
         <v>8681</v>
       </c>
       <c r="B8681">
-        <v>16.75150096332451</v>
+        <v>16.7515009633245</v>
       </c>
     </row>
     <row r="8682" spans="1:2">
@@ -69815,7 +69815,7 @@
         <v>8684</v>
       </c>
       <c r="B8684">
-        <v>8.259181476034703</v>
+        <v>8.259181476034701</v>
       </c>
     </row>
     <row r="8685" spans="1:2">
@@ -70287,7 +70287,7 @@
         <v>8743</v>
       </c>
       <c r="B8743">
-        <v>9.689075073663409</v>
+        <v>9.689075073663403</v>
       </c>
     </row>
     <row r="8744" spans="1:2">
@@ -70359,7 +70359,7 @@
         <v>8752</v>
       </c>
       <c r="B8752">
-        <v>5.771506578565606</v>
+        <v>5.771506578565605</v>
       </c>
     </row>
     <row r="8753" spans="1:2">
@@ -70375,7 +70375,7 @@
         <v>8754</v>
       </c>
       <c r="B8754">
-        <v>2.611306915128386</v>
+        <v>2.611306915128385</v>
       </c>
     </row>
     <row r="8755" spans="1:2">
